--- a/DS/001_設計書/001_基本設計書/DS基本設計書_人員管理画面.xlsx
+++ b/DS/001_設計書/001_基本設計書/DS基本設計書_人員管理画面.xlsx
@@ -5,16 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="登録画面" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="検索画面" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="更新・削除画面" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="アプリ画面１" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="アプリ画面２" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="×" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="登録読込フォーマット" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="アプリ画面１" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="アプリ画面２" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="×" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">DS基本設計書 人員管理画面</t>
   </si>
@@ -45,17 +46,75 @@
   <si>
     <t xml:space="preserve">改訂者</t>
   </si>
+  <si>
+    <t xml:space="preserve">店主情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">店主名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生年月日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年齢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">性別</t>
+  </si>
+  <si>
+    <t xml:space="preserve">電話番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住所</t>
+  </si>
+  <si>
+    <t xml:space="preserve">権限区分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">備考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">田中　次郎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1980/03/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">男</t>
+  </si>
+  <si>
+    <t xml:space="preserve">000-0000-0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziro@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">テスト県テスト市テスト区テスト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-00-0 テストビル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーナー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人当たりの良い人</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="M\月D\日"/>
+    <numFmt numFmtId="165" formatCode="[$-411]MM\月DD\日"/>
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
+    <numFmt numFmtId="167" formatCode="M\月D\日"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -147,12 +206,14 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ 明朝"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ 明朝"/>
       <family val="2"/>
       <charset val="128"/>
@@ -167,8 +228,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -186,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -257,6 +324,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -287,7 +361,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,6 +450,18 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,9 +546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -471,8 +557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="6923160"/>
+          <a:off x="573840" y="167760"/>
+          <a:ext cx="10568160" cy="5093280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -512,9 +598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -523,8 +609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="366480"/>
+          <a:off x="573840" y="167760"/>
+          <a:ext cx="10568160" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -583,14 +669,14 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>17640</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>196200</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:colOff>113760</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -599,8 +685,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9468000" y="6368400"/>
-          <a:ext cx="1243080" cy="470880"/>
+          <a:off x="9489240" y="4722480"/>
+          <a:ext cx="1244160" cy="347760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,9 +748,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:colOff>137520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -673,8 +759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2327040" y="978120"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="2332080" y="734040"/>
+          <a:ext cx="1536480" cy="273600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -736,9 +822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276840</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:colOff>275760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -747,8 +833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="918720" y="989280"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="920520" y="745200"/>
+          <a:ext cx="1364040" cy="271440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,9 +880,6 @@
             <a:t>名前</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -808,14 +891,14 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>61560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>227520</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -824,8 +907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934680" y="913320"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="6949800" y="730440"/>
+          <a:ext cx="1536840" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -883,13 +966,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>85320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>10080</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
+      <xdr:colOff>14760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -898,8 +981,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5526360" y="924480"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="5538600" y="739440"/>
+          <a:ext cx="1364400" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,9 +1028,6 @@
             <a:t>住所</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -964,9 +1044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -975,8 +1055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6918480" y="1303560"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="6933600" y="998640"/>
+          <a:ext cx="1536840" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,9 +1118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1049,8 +1129,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2326680" y="1844640"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="2331720" y="1356840"/>
+          <a:ext cx="1536480" cy="273600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,9 +1192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>275400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1123,8 +1203,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="918360" y="1855800"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="920160" y="1368000"/>
+          <a:ext cx="1364040" cy="271440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,9 +1250,6 @@
             <a:t>年齢</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1184,14 +1261,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>218160</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>127440</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1200,8 +1277,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2316960" y="2961360"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="2322000" y="2229840"/>
+          <a:ext cx="1536480" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1263,9 +1340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>265680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1274,8 +1351,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="908640" y="2972520"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="910440" y="2179800"/>
+          <a:ext cx="1364040" cy="271440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1321,9 +1398,6 @@
             <a:t>電話番号</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1335,14 +1409,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>197640</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1351,8 +1425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="770400" y="676440"/>
-          <a:ext cx="10112040" cy="4590720"/>
+          <a:off x="771480" y="554400"/>
+          <a:ext cx="10133280" cy="3309480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1382,9 +1456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1393,8 +1467,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="770400" y="5353200"/>
-          <a:ext cx="10112040" cy="866520"/>
+          <a:off x="771480" y="3951000"/>
+          <a:ext cx="10133280" cy="621720"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1424,9 +1498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
+      <xdr:colOff>165240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1435,8 +1509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5426280" y="5619960"/>
-          <a:ext cx="3904200" cy="342720"/>
+          <a:off x="5437800" y="4156920"/>
+          <a:ext cx="3911760" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,9 +1572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>42480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1509,8 +1583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9544320" y="5600880"/>
-          <a:ext cx="1095480" cy="394560"/>
+          <a:off x="9565560" y="4137840"/>
+          <a:ext cx="1096560" cy="271440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1581,9 +1655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>194040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1592,14 +1666,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10623600" y="743040"/>
-          <a:ext cx="167760" cy="171360"/>
+          <a:off x="10647000" y="560160"/>
+          <a:ext cx="166680" cy="170280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="468" h="478">
               <a:moveTo>
@@ -1722,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:colOff>235800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1733,8 +1807,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9865080" y="742680"/>
-          <a:ext cx="681480" cy="162000"/>
+          <a:off x="9886680" y="559800"/>
+          <a:ext cx="681840" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,14 +1831,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>画面入力</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1776,14 +1857,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>15840</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>118440</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1792,8 +1873,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2306880" y="3397680"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="2311920" y="2544120"/>
+          <a:ext cx="1536480" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1850,14 +1931,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>39600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>208440</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>255600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1866,8 +1947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="898560" y="3408840"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="900360" y="2555280"/>
+          <a:ext cx="1364040" cy="210240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1913,9 +1994,6 @@
             <a:t>メール</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1927,14 +2005,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>223560</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>282240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1943,8 +2021,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="925200" y="2280960"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="927000" y="1732320"/>
+          <a:ext cx="1364040" cy="210240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,9 +2068,6 @@
             <a:t>性別</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2009,9 +2084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2020,8 +2095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2393280" y="2376360"/>
-          <a:ext cx="158040" cy="158040"/>
+          <a:off x="2398320" y="1766520"/>
+          <a:ext cx="156960" cy="96120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2053,9 +2128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2064,8 +2139,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552040" y="2366640"/>
-          <a:ext cx="227160" cy="162000"/>
+          <a:off x="2557080" y="1756800"/>
+          <a:ext cx="226800" cy="100080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2088,14 +2163,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>男</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2112,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>109800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>219600</xdr:rowOff>
+      <xdr:colOff>108720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2123,8 +2205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038760" y="2343600"/>
-          <a:ext cx="221040" cy="162000"/>
+          <a:off x="3044880" y="1733760"/>
+          <a:ext cx="221040" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,14 +2229,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>女</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2171,9 +2260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>174240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>225360</xdr:rowOff>
+      <xdr:colOff>173160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2182,8 +2271,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2880000" y="2353320"/>
-          <a:ext cx="158040" cy="158040"/>
+          <a:off x="2886120" y="1743480"/>
+          <a:ext cx="156960" cy="156960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2215,9 +2304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>100080</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>214200</xdr:rowOff>
+      <xdr:colOff>99000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2226,8 +2315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3540600" y="2338200"/>
-          <a:ext cx="1141560" cy="162000"/>
+          <a:off x="3548160" y="1728360"/>
+          <a:ext cx="1143000" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2250,14 +2339,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>どちらでもない</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2274,9 +2370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>219960</xdr:rowOff>
+      <xdr:colOff>102240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2285,8 +2381,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381840" y="2347920"/>
-          <a:ext cx="158040" cy="158040"/>
+          <a:off x="3389040" y="1738080"/>
+          <a:ext cx="157320" cy="156960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2318,9 +2414,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2329,8 +2425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6928200" y="2876760"/>
-          <a:ext cx="3687840" cy="1142640"/>
+          <a:off x="6943320" y="2145240"/>
+          <a:ext cx="3695040" cy="836640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2392,9 +2488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2403,8 +2499,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5519880" y="2887920"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="5532120" y="2156400"/>
+          <a:ext cx="1364400" cy="210240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2450,9 +2546,6 @@
             <a:t>備考</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2469,9 +2562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>226440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2480,8 +2573,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2317320" y="1411560"/>
-          <a:ext cx="487440" cy="335520"/>
+          <a:off x="2322360" y="1045800"/>
+          <a:ext cx="487080" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2543,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>266040</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2554,8 +2647,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="909000" y="1422720"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="910800" y="1056960"/>
+          <a:ext cx="1364040" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2601,9 +2694,6 @@
             <a:t>生年月日</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2620,9 +2710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2631,8 +2721,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2889000" y="1398600"/>
-          <a:ext cx="487440" cy="335520"/>
+          <a:off x="2895120" y="1032840"/>
+          <a:ext cx="487440" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2694,9 +2784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2705,8 +2795,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3465000" y="1398600"/>
-          <a:ext cx="487440" cy="335520"/>
+          <a:off x="3472560" y="1032840"/>
+          <a:ext cx="487080" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2768,9 +2858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>150120</xdr:colOff>
+      <xdr:colOff>149040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2779,8 +2869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6920640" y="1748160"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="6935760" y="1321200"/>
+          <a:ext cx="1536840" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2841,10 +2931,10 @@
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2853,8 +2943,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5512320" y="1759320"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="5524560" y="1332360"/>
+          <a:ext cx="1364400" cy="210600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2900,9 +2990,6 @@
             <a:t>担当地域</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -2919,9 +3006,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2930,8 +3017,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8512560" y="1743120"/>
-          <a:ext cx="2221920" cy="952560"/>
+          <a:off x="8531280" y="1316160"/>
+          <a:ext cx="2225520" cy="707760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,14 +3075,14 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>198360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3004,8 +3091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11080800" y="1571400"/>
-          <a:ext cx="4226400" cy="1019160"/>
+          <a:off x="11104920" y="1205640"/>
+          <a:ext cx="4234680" cy="713160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3034,9 +3121,16 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>プルダウンで○○地方で選択して、その地方の都道府県を</a:t>
@@ -3046,14 +3140,169 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>リストで一覧表示する</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14040</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2310120" y="2824920"/>
+          <a:ext cx="1536840" cy="212400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00b0f0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="3b3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>入力項目</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38160</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254520</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="898920" y="2833920"/>
+          <a:ext cx="1364400" cy="212400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>権限区分</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3075,19 +3324,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="6923160"/>
+          <a:off x="573840" y="167760"/>
+          <a:ext cx="10568160" cy="5093280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3127,19 +3376,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="366480"/>
+          <a:off x="573840" y="167760"/>
+          <a:ext cx="10568160" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3198,24 +3447,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>68400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="720720" y="860760"/>
-          <a:ext cx="5856120" cy="425160"/>
+          <a:off x="721800" y="677880"/>
+          <a:ext cx="6809040" cy="302040"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3239,31 +3488,31 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>169200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>49680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2388240" y="917280"/>
-          <a:ext cx="167760" cy="171360"/>
+          <a:off x="2465280" y="741960"/>
+          <a:ext cx="167400" cy="162720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="468" h="478">
               <a:moveTo>
@@ -3380,25 +3629,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>96480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:colOff>204120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2601720" y="916920"/>
-          <a:ext cx="681480" cy="162000"/>
+          <a:off x="2679480" y="741600"/>
+          <a:ext cx="681840" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3421,14 +3670,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>待機中</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3441,29 +3697,29 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>19440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>187200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>184680</xdr:rowOff>
+      <xdr:colOff>186120</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3456000" y="927720"/>
-          <a:ext cx="167760" cy="171360"/>
+          <a:off x="3463560" y="744480"/>
+          <a:ext cx="166680" cy="155160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="468" h="478">
               <a:moveTo>
@@ -3582,23 +3838,23 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>232920</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>55440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3669480" y="927360"/>
-          <a:ext cx="681480" cy="162000"/>
+          <a:off x="3677040" y="744120"/>
+          <a:ext cx="682560" cy="153360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3621,14 +3877,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>配達中</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3640,30 +3903,30 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>226800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>223200</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:colOff>106920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4522320" y="909000"/>
-          <a:ext cx="167760" cy="171360"/>
+          <a:off x="4532040" y="748800"/>
+          <a:ext cx="167040" cy="162720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="468" h="478">
               <a:moveTo>
@@ -3781,24 +4044,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>153720</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>222840</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:colOff>261360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4735800" y="908640"/>
-          <a:ext cx="681480" cy="162000"/>
+          <a:off x="4745880" y="756000"/>
+          <a:ext cx="681840" cy="153360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3821,14 +4084,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>配達済み</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3840,30 +4110,30 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>114840</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>213480</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>282600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:colOff>286560</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5555880" y="899280"/>
-          <a:ext cx="167760" cy="171360"/>
+          <a:off x="5568120" y="754200"/>
+          <a:ext cx="171720" cy="155160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="468" h="478">
               <a:moveTo>
@@ -3981,24 +4251,24 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>41760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>213120</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:colOff>149400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5769360" y="898920"/>
-          <a:ext cx="681480" cy="162000"/>
+          <a:off x="5781960" y="761400"/>
+          <a:ext cx="681840" cy="145800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4021,14 +4291,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>配達完了</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4039,25 +4316,25 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>218160</xdr:colOff>
+      <xdr:colOff>149760</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>113760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="790920" y="790560"/>
-          <a:ext cx="1480320" cy="419040"/>
+          <a:off x="723600" y="668520"/>
+          <a:ext cx="1686240" cy="313560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4100,12 +4377,9 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>運搬ステータス</a:t>
+            <a:t>配達員ステータス</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4115,26 +4389,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>242640</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>79200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
+      <xdr:colOff>57600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8261280" y="876600"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="8689680" y="693720"/>
+          <a:ext cx="1126440" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4189,26 +4463,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>201960</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>137520</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6852960" y="887760"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="7599960" y="704880"/>
+          <a:ext cx="1019880" cy="210240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4263,9 +4537,6 @@
             <a:t>ID</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4277,24 +4548,24 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>168480</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9905400" y="876240"/>
-          <a:ext cx="997200" cy="343080"/>
+          <a:off x="9927000" y="693360"/>
+          <a:ext cx="998640" cy="219960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4356,19 +4627,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>246600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:colOff>245520</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="54" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="770400" y="1495440"/>
-          <a:ext cx="10072440" cy="4619520"/>
+          <a:off x="771480" y="1129680"/>
+          <a:ext cx="10093680" cy="3399120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4425,24 +4696,24 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>127800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>246600</xdr:colOff>
+      <xdr:colOff>245520</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9578160" y="6382080"/>
-          <a:ext cx="1264680" cy="343080"/>
+          <a:off x="9599400" y="4736160"/>
+          <a:ext cx="1265760" cy="219960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4499,24 +4770,24 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>48960</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>187200</xdr:colOff>
+      <xdr:colOff>186120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1"/>
+        <xdr:cNvPr id="56" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8067600" y="6382080"/>
-          <a:ext cx="997200" cy="343080"/>
+          <a:off x="8085240" y="4736160"/>
+          <a:ext cx="998280" cy="219960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4580,26 +4851,233 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>189000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>69480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7682760" y="7039440"/>
-          <a:ext cx="4226400" cy="1019160"/>
+          <a:off x="6503400" y="747000"/>
+          <a:ext cx="167400" cy="170280"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="468" h="478">
+              <a:moveTo>
+                <a:pt x="390" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="389" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="403" y="0"/>
+                <a:pt x="416" y="4"/>
+                <a:pt x="428" y="10"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="440" y="17"/>
+                <a:pt x="450" y="27"/>
+                <a:pt x="457" y="39"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="463" y="51"/>
+                <a:pt x="467" y="64"/>
+                <a:pt x="467" y="78"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="467" y="399"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="467" y="399"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="467" y="413"/>
+                <a:pt x="463" y="426"/>
+                <a:pt x="457" y="438"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="450" y="450"/>
+                <a:pt x="440" y="460"/>
+                <a:pt x="428" y="467"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="416" y="473"/>
+                <a:pt x="403" y="477"/>
+                <a:pt x="389" y="477"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="78" y="477"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="78" y="477"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="64" y="477"/>
+                <a:pt x="51" y="473"/>
+                <a:pt x="39" y="467"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="27" y="460"/>
+                <a:pt x="17" y="450"/>
+                <a:pt x="10" y="438"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4" y="426"/>
+                <a:pt x="0" y="413"/>
+                <a:pt x="0" y="399"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="77"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="78"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="78"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="0" y="64"/>
+                <a:pt x="4" y="51"/>
+                <a:pt x="10" y="39"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="17" y="27"/>
+                <a:pt x="27" y="17"/>
+                <a:pt x="39" y="10"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="51" y="4"/>
+                <a:pt x="64" y="0"/>
+                <a:pt x="78" y="0"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="390" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>116280</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>83880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>223920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6717600" y="754200"/>
+          <a:ext cx="681480" cy="160920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>未配達</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>168840</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>79200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>88560</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>91080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7631280" y="5275800"/>
+          <a:ext cx="4224960" cy="1017720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -4628,7 +5106,11 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -4646,6 +5128,44 @@
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>に出力する</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>の最上行をグリッドのカラム名、以下グリッドの情報</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>を入れ込む</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -4669,19 +5189,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CustomShape 1"/>
+        <xdr:cNvPr id="60" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="6923160"/>
+          <a:off x="573840" y="167760"/>
+          <a:ext cx="10568160" cy="5093280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4717,23 +5237,23 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvPr id="61" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="366480"/>
+          <a:off x="573840" y="182880"/>
+          <a:ext cx="10568160" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4792,24 +5312,24 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>17640</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>196200</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:colOff>113760</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CustomShape 1"/>
+        <xdr:cNvPr id="62" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9468000" y="6368400"/>
-          <a:ext cx="1243080" cy="470880"/>
+          <a:off x="9489240" y="4722480"/>
+          <a:ext cx="1244160" cy="347760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4871,19 +5391,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:colOff>137520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="CustomShape 1"/>
+        <xdr:cNvPr id="63" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2327040" y="978120"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="2332080" y="734040"/>
+          <a:ext cx="1536480" cy="273600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4945,19 +5465,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276840</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:colOff>275760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="CustomShape 1"/>
+        <xdr:cNvPr id="64" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="918720" y="989280"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="920520" y="745200"/>
+          <a:ext cx="1364040" cy="271440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5003,9 +5523,6 @@
             <a:t>名前</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -5017,24 +5534,24 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>61560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>227520</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="CustomShape 1"/>
+        <xdr:cNvPr id="65" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934680" y="913320"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="6949800" y="730440"/>
+          <a:ext cx="1536840" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5096,19 +5613,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
+      <xdr:colOff>14760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CustomShape 1"/>
+        <xdr:cNvPr id="66" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5526360" y="924480"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="5538600" y="680400"/>
+          <a:ext cx="1364400" cy="271440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5154,9 +5671,6 @@
             <a:t>住所</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -5173,19 +5687,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="CustomShape 1"/>
+        <xdr:cNvPr id="67" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6918480" y="1303560"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="6933600" y="998640"/>
+          <a:ext cx="1536840" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5247,19 +5761,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="CustomShape 1"/>
+        <xdr:cNvPr id="68" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2326680" y="1844640"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="2331720" y="1356840"/>
+          <a:ext cx="1536480" cy="273600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5321,19 +5835,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276480</xdr:colOff>
+      <xdr:colOff>275400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CustomShape 1"/>
+        <xdr:cNvPr id="69" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="918360" y="1855800"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="920160" y="1368000"/>
+          <a:ext cx="1364040" cy="271440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5379,9 +5893,6 @@
             <a:t>年齢</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -5393,24 +5904,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>218160</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>127440</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CustomShape 1"/>
+        <xdr:cNvPr id="70" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2316960" y="2961360"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="2322000" y="2229840"/>
+          <a:ext cx="1536480" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5472,19 +5983,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>265680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>105480</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CustomShape 1"/>
+        <xdr:cNvPr id="71" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="908640" y="2972520"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="910440" y="2179800"/>
+          <a:ext cx="1364040" cy="271440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5530,9 +6041,6 @@
             <a:t>電話番号</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -5544,24 +6052,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>197640</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="CustomShape 1"/>
+        <xdr:cNvPr id="72" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="770400" y="676440"/>
-          <a:ext cx="10112040" cy="4590720"/>
+          <a:off x="771480" y="554400"/>
+          <a:ext cx="10133280" cy="3309480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5591,25 +6099,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>194040</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="CustomShape 1"/>
+        <xdr:cNvPr id="73" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10623600" y="743040"/>
-          <a:ext cx="167760" cy="171360"/>
+          <a:off x="10647000" y="560160"/>
+          <a:ext cx="166680" cy="170280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="468" h="478">
               <a:moveTo>
@@ -5732,19 +6240,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:colOff>235800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CustomShape 1"/>
+        <xdr:cNvPr id="74" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9865080" y="742680"/>
-          <a:ext cx="681480" cy="162000"/>
+          <a:off x="9886680" y="559800"/>
+          <a:ext cx="681840" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5767,14 +6275,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>画面入力</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -5786,24 +6301,24 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>15840</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>118440</xdr:colOff>
+      <xdr:colOff>117360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="CustomShape 1"/>
+        <xdr:cNvPr id="75" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2306880" y="3397680"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="2311920" y="2544120"/>
+          <a:ext cx="1536480" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5860,24 +6375,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>39600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>208440</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>255600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1"/>
+        <xdr:cNvPr id="76" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="898560" y="3408840"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="900360" y="2555280"/>
+          <a:ext cx="1364040" cy="210240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5923,9 +6438,6 @@
             <a:t>メール</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -5937,24 +6449,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>223560</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>282240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="CustomShape 1"/>
+        <xdr:cNvPr id="77" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="925200" y="2280960"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="927000" y="1732320"/>
+          <a:ext cx="1364040" cy="210240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6000,9 +6512,6 @@
             <a:t>性別</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -6019,19 +6528,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>260280</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="CustomShape 1"/>
+        <xdr:cNvPr id="78" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2393280" y="2376360"/>
-          <a:ext cx="158040" cy="158040"/>
+          <a:off x="2398320" y="1766520"/>
+          <a:ext cx="156960" cy="96120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6063,19 +6572,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
+      <xdr:rowOff>12960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="CustomShape 1"/>
+        <xdr:cNvPr id="79" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2552040" y="2366640"/>
-          <a:ext cx="227160" cy="162000"/>
+          <a:off x="2557080" y="1756800"/>
+          <a:ext cx="226800" cy="100080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6098,14 +6607,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>男</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -6122,19 +6638,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>109800</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>219600</xdr:rowOff>
+      <xdr:colOff>108720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="CustomShape 1"/>
+        <xdr:cNvPr id="80" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3038760" y="2343600"/>
-          <a:ext cx="221040" cy="162000"/>
+          <a:off x="3044880" y="1733760"/>
+          <a:ext cx="221040" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6157,14 +6673,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>女</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -6181,19 +6704,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>174240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>225360</xdr:rowOff>
+      <xdr:colOff>173160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="CustomShape 1"/>
+        <xdr:cNvPr id="81" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2880000" y="2353320"/>
-          <a:ext cx="158040" cy="158040"/>
+          <a:off x="2886120" y="1743480"/>
+          <a:ext cx="156960" cy="156960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6225,19 +6748,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>100080</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>214200</xdr:rowOff>
+      <xdr:colOff>99000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="CustomShape 1"/>
+        <xdr:cNvPr id="82" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3540600" y="2338200"/>
-          <a:ext cx="1141560" cy="162000"/>
+          <a:off x="3548160" y="1728360"/>
+          <a:ext cx="1143000" cy="160920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6260,14 +6783,21 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>どちらでもない</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -6284,19 +6814,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>219960</xdr:rowOff>
+      <xdr:colOff>102240</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="CustomShape 1"/>
+        <xdr:cNvPr id="83" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381840" y="2347920"/>
-          <a:ext cx="158040" cy="158040"/>
+          <a:off x="3389040" y="1738080"/>
+          <a:ext cx="157320" cy="156960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6328,19 +6858,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="CustomShape 1"/>
+        <xdr:cNvPr id="84" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6928200" y="2876760"/>
-          <a:ext cx="3687840" cy="1142640"/>
+          <a:off x="6943320" y="2145240"/>
+          <a:ext cx="3695040" cy="836640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6402,19 +6932,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="CustomShape 1"/>
+        <xdr:cNvPr id="85" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5519880" y="2887920"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="5532120" y="2156400"/>
+          <a:ext cx="1364400" cy="210240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6460,9 +6990,6 @@
             <a:t>備考</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -6479,19 +7006,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>226440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="CustomShape 1"/>
+        <xdr:cNvPr id="86" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2317320" y="1411560"/>
-          <a:ext cx="487440" cy="335520"/>
+          <a:off x="2322360" y="1045800"/>
+          <a:ext cx="487080" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6553,19 +7080,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>266040</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="CustomShape 1"/>
+        <xdr:cNvPr id="87" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="909000" y="1422720"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="910800" y="1056960"/>
+          <a:ext cx="1364040" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6611,9 +7138,6 @@
             <a:t>生年月日</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -6630,19 +7154,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>225360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="CustomShape 1"/>
+        <xdr:cNvPr id="88" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2889000" y="1398600"/>
-          <a:ext cx="487440" cy="335520"/>
+          <a:off x="2895120" y="1032840"/>
+          <a:ext cx="487440" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6704,19 +7228,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>229680</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="CustomShape 1"/>
+        <xdr:cNvPr id="89" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3465000" y="1398600"/>
-          <a:ext cx="487440" cy="335520"/>
+          <a:off x="3472560" y="1032840"/>
+          <a:ext cx="487080" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6778,19 +7302,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>150120</xdr:colOff>
+      <xdr:colOff>149040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="CustomShape 1"/>
+        <xdr:cNvPr id="90" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6920640" y="1748160"/>
-          <a:ext cx="1534320" cy="335520"/>
+          <a:off x="6935760" y="1321200"/>
+          <a:ext cx="1536840" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6851,20 +7375,20 @@
       <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>287640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="CustomShape 1"/>
+        <xdr:cNvPr id="91" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5512320" y="1759320"/>
-          <a:ext cx="1362600" cy="333360"/>
+          <a:off x="5524560" y="1332360"/>
+          <a:ext cx="1364400" cy="210600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6910,9 +7434,6 @@
             <a:t>担当地域</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -6929,19 +7450,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="CustomShape 1"/>
+        <xdr:cNvPr id="92" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8512560" y="1743120"/>
-          <a:ext cx="2221920" cy="952560"/>
+          <a:off x="8531280" y="1316160"/>
+          <a:ext cx="2225520" cy="707760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6998,24 +7519,24 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>198360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="CustomShape 1"/>
+        <xdr:cNvPr id="93" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11080800" y="1571400"/>
-          <a:ext cx="4226400" cy="1019160"/>
+          <a:off x="11104920" y="1205640"/>
+          <a:ext cx="4234680" cy="713160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7044,9 +7565,16 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>プルダウンで○○地方で選択して、その地方の都道府県を</a:t>
@@ -7056,9 +7584,16 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>リストで一覧表示する</a:t>
@@ -7075,24 +7610,24 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>138960</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>223200</xdr:rowOff>
+      <xdr:colOff>235440</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="CustomShape 1"/>
+        <xdr:cNvPr id="94" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7871040" y="6381720"/>
-          <a:ext cx="1243080" cy="470880"/>
+          <a:off x="7888320" y="4735800"/>
+          <a:ext cx="1244520" cy="347760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7159,19 +7694,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="CustomShape 1"/>
+        <xdr:cNvPr id="95" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="6923160"/>
+          <a:off x="573840" y="167760"/>
+          <a:ext cx="10568160" cy="5093280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7211,19 +7746,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="CustomShape 1"/>
+        <xdr:cNvPr id="96" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="366480"/>
+          <a:off x="573840" y="167760"/>
+          <a:ext cx="10568160" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7287,19 +7822,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="CustomShape 1"/>
+        <xdr:cNvPr id="97" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="889920" y="784800"/>
-          <a:ext cx="9418680" cy="2467440"/>
+          <a:off x="891720" y="601920"/>
+          <a:ext cx="9438120" cy="1795680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7361,19 +7896,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>282240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="CustomShape 1"/>
+        <xdr:cNvPr id="98" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6199560" y="5177880"/>
-          <a:ext cx="1243080" cy="470880"/>
+          <a:off x="6212880" y="3836520"/>
+          <a:ext cx="1244520" cy="348120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7435,19 +7970,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="CustomShape 1"/>
+        <xdr:cNvPr id="99" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3561480" y="5170320"/>
-          <a:ext cx="2472480" cy="470880"/>
+          <a:off x="3569040" y="3828960"/>
+          <a:ext cx="2477160" cy="348120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7509,19 +8044,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="CustomShape 1"/>
+        <xdr:cNvPr id="100" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="889920" y="5837040"/>
-          <a:ext cx="3904200" cy="501480"/>
+          <a:off x="891720" y="4312800"/>
+          <a:ext cx="3911400" cy="378720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7578,24 +8113,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>30960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>205920</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="CustomShape 1"/>
+        <xdr:cNvPr id="101" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="889920" y="3406320"/>
-          <a:ext cx="4347360" cy="1537920"/>
+          <a:off x="891720" y="2552760"/>
+          <a:ext cx="4356000" cy="1110240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7652,24 +8187,24 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>60120</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>129240</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="CustomShape 1"/>
+        <xdr:cNvPr id="102" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="919080" y="5210280"/>
-          <a:ext cx="2073960" cy="428400"/>
+          <a:off x="920880" y="3868920"/>
+          <a:ext cx="2077200" cy="305640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7715,9 +8250,6 @@
             <a:t>ラベル</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -7734,19 +8266,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>39960</xdr:colOff>
+      <xdr:colOff>38880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="CustomShape 1"/>
+        <xdr:cNvPr id="103" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5066640" y="5801040"/>
-          <a:ext cx="5855760" cy="1171440"/>
+          <a:off x="5077440" y="4276800"/>
+          <a:ext cx="5868000" cy="865800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7813,19 +8345,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>210960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="CustomShape 1"/>
+        <xdr:cNvPr id="104" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="580320" y="228600"/>
-          <a:ext cx="3927240" cy="5446800"/>
+          <a:off x="581400" y="167400"/>
+          <a:ext cx="3934800" cy="4043880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7865,19 +8397,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="CustomShape 1"/>
+        <xdr:cNvPr id="105" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="580320" y="228600"/>
-          <a:ext cx="3927240" cy="288000"/>
+          <a:off x="581400" y="167400"/>
+          <a:ext cx="3934800" cy="226080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7939,19 +8471,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
+      <xdr:colOff>195840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="CustomShape 1"/>
+        <xdr:cNvPr id="106" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="889560" y="784800"/>
-          <a:ext cx="3316680" cy="1751040"/>
+          <a:off x="891360" y="601920"/>
+          <a:ext cx="3322440" cy="1262160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8013,19 +8545,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="CustomShape 1"/>
+        <xdr:cNvPr id="107" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3401640" y="3802320"/>
-          <a:ext cx="976320" cy="470880"/>
+          <a:off x="3408840" y="2826720"/>
+          <a:ext cx="977760" cy="348120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8087,19 +8619,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>181440</xdr:colOff>
+      <xdr:colOff>180360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="CustomShape 1"/>
+        <xdr:cNvPr id="108" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="866520" y="3787200"/>
-          <a:ext cx="2464920" cy="470880"/>
+          <a:off x="868320" y="2811600"/>
+          <a:ext cx="2469240" cy="348120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8161,19 +8693,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="CustomShape 1"/>
+        <xdr:cNvPr id="109" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847080" y="4427280"/>
-          <a:ext cx="3538440" cy="501480"/>
+          <a:off x="848160" y="3268800"/>
+          <a:ext cx="3546000" cy="378720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8235,19 +8767,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>226440</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="CustomShape 1"/>
+        <xdr:cNvPr id="110" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="882000" y="2621160"/>
-          <a:ext cx="2495520" cy="1073160"/>
+          <a:off x="883800" y="1950480"/>
+          <a:ext cx="2499840" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8309,19 +8841,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:colOff>58680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="CustomShape 1"/>
+        <xdr:cNvPr id="111" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="849600" y="5038920"/>
-          <a:ext cx="2073960" cy="428400"/>
+          <a:off x="850680" y="3697560"/>
+          <a:ext cx="2077920" cy="366480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8367,9 +8899,6 @@
             <a:t>ラベル</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -8391,9 +8920,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.8203125" defaultRowHeight="10.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.78515625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="2.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="1" style="1" width="2.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9910,7 +10439,7 @@
       <c r="AY28" s="6"/>
       <c r="AZ28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -9964,7 +10493,7 @@
       <c r="AY29" s="6"/>
       <c r="AZ29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -10018,7 +10547,7 @@
       <c r="AY30" s="6"/>
       <c r="AZ30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -10072,7 +10601,7 @@
       <c r="AY31" s="6"/>
       <c r="AZ31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -10126,7 +10655,7 @@
       <c r="AY32" s="6"/>
       <c r="AZ32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -10180,7 +10709,7 @@
       <c r="AY33" s="6"/>
       <c r="AZ33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -10234,7 +10763,7 @@
       <c r="AY34" s="6"/>
       <c r="AZ34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -10288,7 +10817,7 @@
       <c r="AY35" s="6"/>
       <c r="AZ35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -10342,7 +10871,7 @@
       <c r="AY36" s="6"/>
       <c r="AZ36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -10396,7 +10925,7 @@
       <c r="AY37" s="6"/>
       <c r="AZ37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -10450,7 +10979,7 @@
       <c r="AY38" s="6"/>
       <c r="AZ38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -10504,7 +11033,7 @@
       <c r="AY39" s="13"/>
       <c r="AZ39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -10558,7 +11087,7 @@
       <c r="AY40" s="13"/>
       <c r="AZ40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -10616,7 +11145,7 @@
       <c r="AY41" s="15"/>
       <c r="AZ41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -10782,7 +11311,7 @@
       <c r="AY44" s="16"/>
       <c r="AZ44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -10838,7 +11367,7 @@
       <c r="AY45" s="17"/>
       <c r="AZ45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -10892,7 +11421,7 @@
       <c r="AY46" s="17"/>
       <c r="AZ46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -10948,7 +11477,7 @@
       <c r="AY47" s="18"/>
       <c r="AZ47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -11002,7 +11531,7 @@
       <c r="AY48" s="18"/>
       <c r="AZ48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -11056,7 +11585,7 @@
       <c r="AY49" s="6"/>
       <c r="AZ49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="10.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="19"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -11143,7 +11672,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11164,10 +11693,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="Q36" activeCellId="0" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11187,11 +11716,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11209,22 +11738,380 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="5.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="11.64"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="Ziro@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11239,7 +12126,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -11260,10 +12147,34 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.57421875" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.55859375" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/DS/001_設計書/001_基本設計書/DS基本設計書_人員管理画面.xlsx
+++ b/DS/001_設計書/001_基本設計書/DS基本設計書_人員管理画面.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -546,9 +546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -558,7 +558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568160" cy="5093280"/>
+          <a:ext cx="10567800" cy="5092920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -598,9 +598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -610,7 +610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568160" cy="304560"/>
+          <a:ext cx="10567800" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -674,9 +674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -686,7 +686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9489240" y="4722480"/>
-          <a:ext cx="1244160" cy="347760"/>
+          <a:ext cx="1243800" cy="347400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -748,9 +748,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>137520</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -760,7 +760,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2332080" y="734040"/>
-          <a:ext cx="1536480" cy="273600"/>
+          <a:ext cx="1536120" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,9 +822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>275760</xdr:colOff>
+      <xdr:colOff>275400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -834,7 +834,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="920520" y="745200"/>
-          <a:ext cx="1364040" cy="271440"/>
+          <a:ext cx="1363680" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -896,9 +896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -908,7 +908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6949800" y="730440"/>
-          <a:ext cx="1536840" cy="212400"/>
+          <a:ext cx="1536480" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -970,9 +970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -982,7 +982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5538600" y="739440"/>
-          <a:ext cx="1364400" cy="212400"/>
+          <a:ext cx="1364040" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1044,9 +1044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
+      <xdr:colOff>146520</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1056,7 +1056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6933600" y="998640"/>
-          <a:ext cx="1536840" cy="212400"/>
+          <a:ext cx="1536480" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1118,9 +1118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>136800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1130,7 +1130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2331720" y="1356840"/>
-          <a:ext cx="1536480" cy="273600"/>
+          <a:ext cx="1536120" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,9 +1192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>275400</xdr:colOff>
+      <xdr:colOff>275040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1204,7 +1204,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="920160" y="1368000"/>
-          <a:ext cx="1364040" cy="271440"/>
+          <a:ext cx="1363680" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1266,9 +1266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1278,7 +1278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2322000" y="2229840"/>
-          <a:ext cx="1536480" cy="212400"/>
+          <a:ext cx="1536120" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1340,9 +1340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1352,7 +1352,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="910440" y="2179800"/>
-          <a:ext cx="1364040" cy="271440"/>
+          <a:ext cx="1363680" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,9 +1414,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>285120</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1426,7 +1426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="771480" y="554400"/>
-          <a:ext cx="10133280" cy="3309480"/>
+          <a:ext cx="10132920" cy="3309120"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1456,9 +1456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>285120</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1468,7 +1468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="771480" y="3951000"/>
-          <a:ext cx="10133280" cy="621720"/>
+          <a:ext cx="10132920" cy="621360"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1498,9 +1498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>165240</xdr:colOff>
+      <xdr:colOff>164880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1510,7 +1510,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5437800" y="4156920"/>
-          <a:ext cx="3911760" cy="219600"/>
+          <a:ext cx="3911400" cy="219240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1572,9 +1572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>42480</xdr:colOff>
+      <xdr:colOff>42120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1584,7 +1584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9565560" y="4137840"/>
-          <a:ext cx="1096560" cy="271440"/>
+          <a:ext cx="1096200" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1655,9 +1655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
+      <xdr:colOff>193680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1667,7 +1667,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10647000" y="560160"/>
-          <a:ext cx="166680" cy="170280"/>
+          <a:ext cx="166320" cy="169920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1796,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>235800</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1808,7 +1808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9886680" y="559800"/>
-          <a:ext cx="681840" cy="160920"/>
+          <a:ext cx="681480" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1862,9 +1862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>117000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1874,7 +1874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2311920" y="2544120"/>
-          <a:ext cx="1536480" cy="212400"/>
+          <a:ext cx="1536120" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1936,9 +1936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>255240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1948,7 +1948,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="900360" y="2555280"/>
-          <a:ext cx="1364040" cy="210240"/>
+          <a:ext cx="1363680" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2010,9 +2010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+      <xdr:colOff>281880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2022,7 +2022,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="927000" y="1732320"/>
-          <a:ext cx="1364040" cy="210240"/>
+          <a:ext cx="1363680" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2084,9 +2084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2096,7 +2096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2398320" y="1766520"/>
-          <a:ext cx="156960" cy="96120"/>
+          <a:ext cx="156600" cy="95760"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2128,9 +2128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2140,7 +2140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2557080" y="1756800"/>
-          <a:ext cx="226800" cy="100080"/>
+          <a:ext cx="226440" cy="99720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>108720</xdr:colOff>
+      <xdr:colOff>108360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3044880" y="1733760"/>
-          <a:ext cx="221040" cy="160920"/>
+          <a:ext cx="220680" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2260,9 +2260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
+      <xdr:colOff>172800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2272,7 +2272,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2886120" y="1743480"/>
-          <a:ext cx="156960" cy="156960"/>
+          <a:ext cx="156600" cy="156600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2304,9 +2304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2316,7 +2316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3548160" y="1728360"/>
-          <a:ext cx="1143000" cy="160920"/>
+          <a:ext cx="1142640" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2370,9 +2370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2382,7 +2382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3389040" y="1738080"/>
-          <a:ext cx="157320" cy="156960"/>
+          <a:ext cx="156960" cy="156600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2414,9 +2414,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2426,7 +2426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6943320" y="2145240"/>
-          <a:ext cx="3695040" cy="836640"/>
+          <a:ext cx="3694680" cy="836280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2488,9 +2488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2500,7 +2500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5532120" y="2156400"/>
-          <a:ext cx="1364400" cy="210240"/>
+          <a:ext cx="1364040" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2562,9 +2562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2574,7 +2574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2322360" y="1045800"/>
-          <a:ext cx="487080" cy="273240"/>
+          <a:ext cx="486720" cy="272880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2636,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>265680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2648,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="910800" y="1056960"/>
-          <a:ext cx="1364040" cy="271080"/>
+          <a:ext cx="1363680" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2710,9 +2710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>225000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2722,7 +2722,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2895120" y="1032840"/>
-          <a:ext cx="487440" cy="273240"/>
+          <a:ext cx="487080" cy="272880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2784,9 +2784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2796,7 +2796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3472560" y="1032840"/>
-          <a:ext cx="487080" cy="273240"/>
+          <a:ext cx="486720" cy="272880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2851,16 +2851,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>71280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2869,82 +2869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6935760" y="1321200"/>
-          <a:ext cx="1536840" cy="212760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00b0f0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="3b3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>プルダウン</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>71280</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="5524560" y="1332360"/>
-          <a:ext cx="1364400" cy="210600"/>
+          <a:ext cx="1364040" cy="210240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2999,26 +2925,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>207720</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>59040</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>275040</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8531280" y="1316160"/>
-          <a:ext cx="2225520" cy="707760"/>
+          <a:off x="6947280" y="1316160"/>
+          <a:ext cx="2225160" cy="707400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3073,26 +2999,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>198360</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>49320</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>32400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>127800</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1"/>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11104920" y="1205640"/>
-          <a:ext cx="4234680" cy="713160"/>
+          <a:off x="9520920" y="1205640"/>
+          <a:ext cx="4234320" cy="712800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3171,19 +3097,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="36" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2310120" y="2824920"/>
-          <a:ext cx="1536840" cy="212400"/>
+          <a:ext cx="1536480" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3245,19 +3171,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>254520</xdr:colOff>
+      <xdr:colOff>254160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="898920" y="2833920"/>
-          <a:ext cx="1364400" cy="212400"/>
+          <a:ext cx="1364040" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3324,19 +3250,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568160" cy="5093280"/>
+          <a:ext cx="10567800" cy="5092920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3376,19 +3302,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568160" cy="304560"/>
+          <a:ext cx="10567800" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3452,19 +3378,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
+      <xdr:colOff>68040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="721800" y="677880"/>
-          <a:ext cx="6809040" cy="302040"/>
+          <a:ext cx="6808680" cy="301680"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3494,19 +3420,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
+      <xdr:colOff>49320</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2465280" y="741960"/>
-          <a:ext cx="167400" cy="162720"/>
+          <a:ext cx="167040" cy="162360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3635,19 +3561,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2679480" y="741600"/>
-          <a:ext cx="681840" cy="160920"/>
+          <a:ext cx="681480" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3701,19 +3627,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3463560" y="744480"/>
-          <a:ext cx="166680" cy="155160"/>
+          <a:ext cx="166320" cy="154800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3842,19 +3768,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3677040" y="744120"/>
-          <a:ext cx="682560" cy="153360"/>
+          <a:ext cx="682200" cy="153000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3908,19 +3834,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>106920</xdr:colOff>
+      <xdr:colOff>106560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4532040" y="748800"/>
-          <a:ext cx="167040" cy="162720"/>
+          <a:ext cx="166680" cy="162360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4049,19 +3975,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>261360</xdr:colOff>
+      <xdr:colOff>261000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4745880" y="756000"/>
-          <a:ext cx="681840" cy="153360"/>
+          <a:ext cx="681480" cy="153000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4115,19 +4041,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:colOff>286200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5568120" y="754200"/>
-          <a:ext cx="171720" cy="155160"/>
+          <a:ext cx="171360" cy="154800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4256,19 +4182,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>149400</xdr:colOff>
+      <xdr:colOff>149040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5781960" y="761400"/>
-          <a:ext cx="681840" cy="145800"/>
+          <a:ext cx="681480" cy="145440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4322,19 +4248,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="723600" y="668520"/>
-          <a:ext cx="1686240" cy="313560"/>
+          <a:ext cx="1685880" cy="313200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4396,19 +4322,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>57240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8689680" y="693720"/>
-          <a:ext cx="1126440" cy="212400"/>
+          <a:ext cx="1126080" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4470,19 +4396,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7599960" y="704880"/>
-          <a:ext cx="1019880" cy="210240"/>
+          <a:ext cx="1019520" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4553,19 +4479,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9927000" y="693360"/>
-          <a:ext cx="998640" cy="219960"/>
+          <a:ext cx="998280" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4627,19 +4553,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>245520</xdr:colOff>
+      <xdr:colOff>245160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>2520</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="771480" y="1129680"/>
-          <a:ext cx="10093680" cy="3399120"/>
+          <a:ext cx="10093320" cy="3398760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4701,19 +4627,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>245520</xdr:colOff>
+      <xdr:colOff>245160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1"/>
+        <xdr:cNvPr id="54" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9599400" y="4736160"/>
-          <a:ext cx="1265760" cy="219960"/>
+          <a:ext cx="1265400" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4775,19 +4701,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8085240" y="4736160"/>
-          <a:ext cx="998280" cy="219960"/>
+          <a:ext cx="997920" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4858,19 +4784,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1"/>
+        <xdr:cNvPr id="56" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6503400" y="747000"/>
-          <a:ext cx="167400" cy="170280"/>
+          <a:ext cx="167040" cy="169920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4999,19 +4925,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>223920</xdr:colOff>
+      <xdr:colOff>223560</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CustomShape 1"/>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6717600" y="754200"/>
-          <a:ext cx="681480" cy="160920"/>
+          <a:ext cx="681120" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5065,19 +4991,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>88200</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="CustomShape 1"/>
+        <xdr:cNvPr id="58" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7631280" y="5275800"/>
-          <a:ext cx="4224960" cy="1017720"/>
+          <a:ext cx="4224600" cy="1017360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5189,19 +5115,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="CustomShape 1"/>
+        <xdr:cNvPr id="59" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568160" cy="5093280"/>
+          <a:ext cx="10567800" cy="5092920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5241,19 +5167,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="CustomShape 1"/>
+        <xdr:cNvPr id="60" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="182880"/>
-          <a:ext cx="10568160" cy="304560"/>
+          <a:ext cx="10567800" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5317,19 +5243,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CustomShape 1"/>
+        <xdr:cNvPr id="61" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9489240" y="4722480"/>
-          <a:ext cx="1244160" cy="347760"/>
+          <a:ext cx="1243800" cy="347400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5391,19 +5317,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>137520</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="CustomShape 1"/>
+        <xdr:cNvPr id="62" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2332080" y="734040"/>
-          <a:ext cx="1536480" cy="273600"/>
+          <a:ext cx="1536120" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5465,19 +5391,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>275760</xdr:colOff>
+      <xdr:colOff>275400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="CustomShape 1"/>
+        <xdr:cNvPr id="63" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="920520" y="745200"/>
-          <a:ext cx="1364040" cy="271440"/>
+          <a:ext cx="1363680" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5539,19 +5465,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CustomShape 1"/>
+        <xdr:cNvPr id="64" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6949800" y="730440"/>
-          <a:ext cx="1536840" cy="212400"/>
+          <a:ext cx="1536480" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5613,19 +5539,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CustomShape 1"/>
+        <xdr:cNvPr id="65" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5538600" y="680400"/>
-          <a:ext cx="1364400" cy="271440"/>
+          <a:ext cx="1364040" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5687,19 +5613,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
+      <xdr:colOff>146520</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CustomShape 1"/>
+        <xdr:cNvPr id="66" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6933600" y="998640"/>
-          <a:ext cx="1536840" cy="212400"/>
+          <a:ext cx="1536480" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5761,19 +5687,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>136800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="CustomShape 1"/>
+        <xdr:cNvPr id="67" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2331720" y="1356840"/>
-          <a:ext cx="1536480" cy="273600"/>
+          <a:ext cx="1536120" cy="273240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5835,19 +5761,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>275400</xdr:colOff>
+      <xdr:colOff>275040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="CustomShape 1"/>
+        <xdr:cNvPr id="68" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="920160" y="1368000"/>
-          <a:ext cx="1364040" cy="271440"/>
+          <a:ext cx="1363680" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5909,19 +5835,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CustomShape 1"/>
+        <xdr:cNvPr id="69" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2322000" y="2229840"/>
-          <a:ext cx="1536480" cy="212400"/>
+          <a:ext cx="1536120" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5983,19 +5909,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="CustomShape 1"/>
+        <xdr:cNvPr id="70" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="910440" y="2179800"/>
-          <a:ext cx="1364040" cy="271440"/>
+          <a:ext cx="1363680" cy="271080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6057,19 +5983,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>285120</xdr:colOff>
+      <xdr:colOff>284760</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1"/>
+        <xdr:cNvPr id="71" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="771480" y="554400"/>
-          <a:ext cx="10133280" cy="3309480"/>
+          <a:ext cx="10132920" cy="3309120"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6099,19 +6025,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
+      <xdr:colOff>193680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="CustomShape 1"/>
+        <xdr:cNvPr id="72" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10647000" y="560160"/>
-          <a:ext cx="166680" cy="170280"/>
+          <a:ext cx="166320" cy="169920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6240,19 +6166,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>235800</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="CustomShape 1"/>
+        <xdr:cNvPr id="73" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9886680" y="559800"/>
-          <a:ext cx="681840" cy="160920"/>
+          <a:ext cx="681480" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6306,19 +6232,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>117360</xdr:colOff>
+      <xdr:colOff>117000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="CustomShape 1"/>
+        <xdr:cNvPr id="74" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2311920" y="2544120"/>
-          <a:ext cx="1536480" cy="212400"/>
+          <a:ext cx="1536120" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6380,19 +6306,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>255600</xdr:colOff>
+      <xdr:colOff>255240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="CustomShape 1"/>
+        <xdr:cNvPr id="75" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="900360" y="2555280"/>
-          <a:ext cx="1364040" cy="210240"/>
+          <a:ext cx="1363680" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6454,19 +6380,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+      <xdr:colOff>281880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>98640</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="CustomShape 1"/>
+        <xdr:cNvPr id="76" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="927000" y="1732320"/>
-          <a:ext cx="1364040" cy="210240"/>
+          <a:ext cx="1363680" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6528,19 +6454,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="CustomShape 1"/>
+        <xdr:cNvPr id="77" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2398320" y="1766520"/>
-          <a:ext cx="156960" cy="96120"/>
+          <a:ext cx="156600" cy="95760"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6572,19 +6498,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:rowOff>12600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="CustomShape 1"/>
+        <xdr:cNvPr id="78" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2557080" y="1756800"/>
-          <a:ext cx="226800" cy="100080"/>
+          <a:ext cx="226440" cy="99720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6638,19 +6564,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>108720</xdr:colOff>
+      <xdr:colOff>108360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="CustomShape 1"/>
+        <xdr:cNvPr id="79" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3044880" y="1733760"/>
-          <a:ext cx="221040" cy="160920"/>
+          <a:ext cx="220680" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6704,19 +6630,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>173160</xdr:colOff>
+      <xdr:colOff>172800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="CustomShape 1"/>
+        <xdr:cNvPr id="80" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2886120" y="1743480"/>
-          <a:ext cx="156960" cy="156960"/>
+          <a:ext cx="156600" cy="156600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6748,19 +6674,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>99000</xdr:colOff>
+      <xdr:colOff>98640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="CustomShape 1"/>
+        <xdr:cNvPr id="81" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3548160" y="1728360"/>
-          <a:ext cx="1143000" cy="160920"/>
+          <a:ext cx="1142640" cy="160560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6814,19 +6740,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="CustomShape 1"/>
+        <xdr:cNvPr id="82" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3389040" y="1738080"/>
-          <a:ext cx="157320" cy="156960"/>
+          <a:ext cx="156960" cy="156600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -6858,19 +6784,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="CustomShape 1"/>
+        <xdr:cNvPr id="83" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6943320" y="2145240"/>
-          <a:ext cx="3695040" cy="836640"/>
+          <a:ext cx="3694680" cy="836280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6932,19 +6858,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="CustomShape 1"/>
+        <xdr:cNvPr id="84" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5532120" y="2156400"/>
-          <a:ext cx="1364400" cy="210240"/>
+          <a:ext cx="1364040" cy="209880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7006,19 +6932,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="CustomShape 1"/>
+        <xdr:cNvPr id="85" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2322360" y="1045800"/>
-          <a:ext cx="487080" cy="273240"/>
+          <a:ext cx="486720" cy="272880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7080,19 +7006,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>265680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="CustomShape 1"/>
+        <xdr:cNvPr id="86" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="910800" y="1056960"/>
-          <a:ext cx="1364040" cy="271080"/>
+          <a:ext cx="1363680" cy="270720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7154,19 +7080,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>225360</xdr:colOff>
+      <xdr:colOff>225000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="CustomShape 1"/>
+        <xdr:cNvPr id="87" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2895120" y="1032840"/>
-          <a:ext cx="487440" cy="273240"/>
+          <a:ext cx="487080" cy="272880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7228,19 +7154,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="CustomShape 1"/>
+        <xdr:cNvPr id="88" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3472560" y="1032840"/>
-          <a:ext cx="487080" cy="273240"/>
+          <a:ext cx="486720" cy="272880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7295,80 +7221,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6935760" y="1321200"/>
-          <a:ext cx="1536840" cy="212760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00b0f0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="3b3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>プルダウン</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>71280</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -7376,19 +7228,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>287640</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="CustomShape 1"/>
+        <xdr:cNvPr id="89" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524560" y="1332360"/>
-          <a:ext cx="1364400" cy="210600"/>
+          <a:ext cx="1364040" cy="210240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7443,26 +7295,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>207720</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>59040</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>275040</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="CustomShape 1"/>
+        <xdr:cNvPr id="90" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8531280" y="1316160"/>
-          <a:ext cx="2225520" cy="707760"/>
+          <a:off x="6947280" y="1316160"/>
+          <a:ext cx="2225160" cy="707400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7517,26 +7369,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>198360</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>127800</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>236160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="CustomShape 1"/>
+        <xdr:cNvPr id="91" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11104920" y="1205640"/>
-          <a:ext cx="4234680" cy="713160"/>
+          <a:off x="9491760" y="1264680"/>
+          <a:ext cx="4234320" cy="712800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -7615,19 +7467,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="CustomShape 1"/>
+        <xdr:cNvPr id="92" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7888320" y="4735800"/>
-          <a:ext cx="1244520" cy="347760"/>
+          <a:ext cx="1244160" cy="347400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7694,19 +7546,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="CustomShape 1"/>
+        <xdr:cNvPr id="93" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568160" cy="5093280"/>
+          <a:ext cx="10567800" cy="5092920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7746,19 +7598,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>235080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="CustomShape 1"/>
+        <xdr:cNvPr id="94" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568160" cy="304560"/>
+          <a:ext cx="10567800" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7822,19 +7674,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>284400</xdr:colOff>
+      <xdr:colOff>284040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="CustomShape 1"/>
+        <xdr:cNvPr id="95" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="891720" y="601920"/>
-          <a:ext cx="9438120" cy="1795680"/>
+          <a:ext cx="9437760" cy="1795320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7896,19 +7748,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+      <xdr:colOff>281880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="CustomShape 1"/>
+        <xdr:cNvPr id="96" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6212880" y="3836520"/>
-          <a:ext cx="1244520" cy="348120"/>
+          <a:ext cx="1244160" cy="347760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7970,19 +7822,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="CustomShape 1"/>
+        <xdr:cNvPr id="97" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3569040" y="3828960"/>
-          <a:ext cx="2477160" cy="348120"/>
+          <a:ext cx="2476800" cy="347760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8044,19 +7896,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="CustomShape 1"/>
+        <xdr:cNvPr id="98" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="891720" y="4312800"/>
-          <a:ext cx="3911400" cy="378720"/>
+          <a:ext cx="3911040" cy="378360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8118,19 +7970,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="CustomShape 1"/>
+        <xdr:cNvPr id="99" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="891720" y="2552760"/>
-          <a:ext cx="4356000" cy="1110240"/>
+          <a:ext cx="4355640" cy="1109880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8192,19 +8044,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>128160</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="CustomShape 1"/>
+        <xdr:cNvPr id="100" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="920880" y="3868920"/>
-          <a:ext cx="2077200" cy="305640"/>
+          <a:ext cx="2076840" cy="305280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8266,19 +8118,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>38520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="CustomShape 1"/>
+        <xdr:cNvPr id="101" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5077440" y="4276800"/>
-          <a:ext cx="5868000" cy="865800"/>
+          <a:ext cx="5867640" cy="865440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8345,19 +8197,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="CustomShape 1"/>
+        <xdr:cNvPr id="102" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="581400" y="167400"/>
-          <a:ext cx="3934800" cy="4043880"/>
+          <a:ext cx="3934440" cy="4043520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8397,19 +8249,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="CustomShape 1"/>
+        <xdr:cNvPr id="103" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="581400" y="167400"/>
-          <a:ext cx="3934800" cy="226080"/>
+          <a:ext cx="3934440" cy="225720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8471,19 +8323,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>195840</xdr:colOff>
+      <xdr:colOff>195480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="CustomShape 1"/>
+        <xdr:cNvPr id="104" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="891360" y="601920"/>
-          <a:ext cx="3322440" cy="1262160"/>
+          <a:ext cx="3322080" cy="1261800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8545,19 +8397,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="CustomShape 1"/>
+        <xdr:cNvPr id="105" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3408840" y="2826720"/>
-          <a:ext cx="977760" cy="348120"/>
+          <a:ext cx="977400" cy="347760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8619,19 +8471,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>180000</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="CustomShape 1"/>
+        <xdr:cNvPr id="106" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="868320" y="2811600"/>
-          <a:ext cx="2469240" cy="348120"/>
+          <a:ext cx="2468880" cy="347760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8693,19 +8545,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>88920</xdr:colOff>
+      <xdr:colOff>88560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="CustomShape 1"/>
+        <xdr:cNvPr id="107" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="848160" y="3268800"/>
-          <a:ext cx="3546000" cy="378720"/>
+          <a:ext cx="3545640" cy="378360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8767,19 +8619,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="CustomShape 1"/>
+        <xdr:cNvPr id="108" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="883800" y="1950480"/>
-          <a:ext cx="2499840" cy="767160"/>
+          <a:ext cx="2499480" cy="766800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8841,19 +8693,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="CustomShape 1"/>
+        <xdr:cNvPr id="109" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="850680" y="3697560"/>
-          <a:ext cx="2077920" cy="366480"/>
+          <a:ext cx="2077560" cy="366120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8916,7 +8768,7 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -11668,8 +11520,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11693,7 +11545,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q36" activeCellId="0" sqref="Q36"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11740,7 +11592,7 @@
   </sheetPr>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/DS/001_設計書/001_基本設計書/DS基本設計書_人員管理画面.xlsx
+++ b/DS/001_設計書/001_基本設計書/DS基本設計書_人員管理画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.ishii\Downloads\DeliverySystem-master\DS\001_設計書\001_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.ishii\Documents\DeliverySystem\DS\001_設計書\001_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3866E2E-2ACF-4FEC-BE91-1903A593715E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF8924-9EDF-4DA9-8AE5-04B3124DEFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -325,27 +325,6 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -389,6 +368,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -609,13 +609,22 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>画面名</a:t>
+            <a:t>人員登録　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>DS0003</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
@@ -3155,14 +3164,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>192391</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
@@ -3179,8 +3188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6947280" y="1316160"/>
-          <a:ext cx="2225160" cy="707400"/>
+          <a:off x="9307816" y="1343070"/>
+          <a:ext cx="2322210" cy="726210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3227,110 +3236,6 @@
             <a:t>リスト</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9520920" y="1205640"/>
-          <a:ext cx="4234320" cy="712800"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -57712"/>
-            <a:gd name="adj2" fmla="val 20125"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729FCF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465A4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>プルダウンで○○地方で選択して、その地方の都道府県を</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>リストで一覧表示する</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3647,11 +3552,17 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>パスワード</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3806,17 +3717,26 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>ユーザ</a:t>
+            <a:t>人員</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ID</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -3832,8 +3752,8 @@
       <xdr:rowOff>29225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>217695</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>68170</xdr:rowOff>
     </xdr:to>
@@ -3850,13 +3770,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4456220" y="3115325"/>
-          <a:ext cx="4651475" cy="724745"/>
+          <a:off x="4411770" y="3115325"/>
+          <a:ext cx="3313005" cy="724745"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -54165"/>
-            <a:gd name="adj2" fmla="val -14046"/>
+            <a:gd name="adj1" fmla="val -57615"/>
+            <a:gd name="adj2" fmla="val -17989"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -3896,7 +3816,7 @@
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>登録が完了した際にユーザ</a:t>
+            <a:t>登録が完了した際に人員</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" strike="noStrike" spc="-1">
@@ -3927,6 +3847,194 @@
             <a:t>（非活性化）</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>157150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>116010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>274150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B49CEA-4C48-46F6-9859-42CBE0230C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10529875" y="801810"/>
+          <a:ext cx="2317275" cy="811735"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -28623"/>
+            <a:gd name="adj2" fmla="val 60812"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729FCF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>地方から大枠を絞り込んで</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>リストで一覧表示する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>70230</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>150605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>153770</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109660</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F50867-2DF1-4357-9206-6BE17227F8D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7614030" y="1350755"/>
+          <a:ext cx="1655165" cy="301955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>地方</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -4064,13 +4172,22 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>画面名</a:t>
+            <a:t>人員検索　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>DS0004</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
@@ -5135,12 +5252,34 @@
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>配達員ステータス</a:t>
+            <a:t>配達</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>人</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>員ステータス</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -5536,13 +5675,22 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="3B3838"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>EXCEL出力</a:t>
+            <a:t>出力</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
@@ -5857,7 +6005,19 @@
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>グリッドで表示されている内容をEXCELに出力する</a:t>
+            <a:t>グリッドで表示されている内容を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>に出力する</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5867,10 +6027,16 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>CSV</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Excelの最上行をグリッドのカラム名、以下グリッドの情報</a:t>
+            <a:t>の最上行をグリッドのカラム名、以下グリッドの情報</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5893,15 +6059,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314890</xdr:colOff>
+      <xdr:colOff>29140</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>117300</xdr:rowOff>
+      <xdr:rowOff>88725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>237425</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>128820</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5916,8 +6082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1267390" y="4746450"/>
-          <a:ext cx="4685035" cy="1040220"/>
+          <a:off x="972115" y="4717875"/>
+          <a:ext cx="3657035" cy="616125"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6039,14 +6205,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>235080</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>132870</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6061,8 +6227,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="573840" y="182880"/>
-          <a:ext cx="10567800" cy="304200"/>
+          <a:off x="628650" y="167880"/>
+          <a:ext cx="11550780" cy="307890"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6102,13 +6268,22 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>画面名</a:t>
+            <a:t>人員更新・削除　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>DS0005</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
@@ -8432,14 +8607,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>230491</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>11880</xdr:rowOff>
     </xdr:to>
@@ -8456,8 +8631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6947280" y="1316160"/>
-          <a:ext cx="2225160" cy="707400"/>
+          <a:off x="9345916" y="1343070"/>
+          <a:ext cx="2284110" cy="726210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8504,110 +8679,6 @@
             <a:t>リスト</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>236160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00005B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9491760" y="1264680"/>
-          <a:ext cx="4234320" cy="712800"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -57712"/>
-            <a:gd name="adj2" fmla="val 20125"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729FCF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465A4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>プルダウンで○○地方で選択して、その地方の都道府県を</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>リストで一覧表示する</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -8843,17 +8914,26 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>ユーザ</a:t>
+            <a:t>人員</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>ID</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -8936,6 +9016,438 @@
             <a:t>変更不可　非活性化</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0AA689-EFCD-4D87-95D2-2B0FADAFE8F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2528580" y="2847975"/>
+          <a:ext cx="1673145" cy="219420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>入力項目</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>113775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EE2B0B-5C99-4051-9DEC-7172A076986C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="2856975"/>
+          <a:ext cx="1473300" cy="219420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF420E"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>権限区分</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>252250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7F8CF8-4151-4D87-8A20-556F72564DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4338475" y="2454275"/>
+          <a:ext cx="1795625" cy="521030"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -56439"/>
+            <a:gd name="adj2" fmla="val 46282"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729FCF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>変更不可　非活性化</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>250735</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>53410</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135505</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82FDF557-F1D4-4E8A-A73B-6C49A002DC68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10937785" y="1895520"/>
+          <a:ext cx="2317275" cy="811735"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -32322"/>
+            <a:gd name="adj2" fmla="val -65917"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729FCF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465A4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>地方から大枠を絞り込んで</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>リストで一覧表示する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>87615</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171155</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>117520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577124E8-3584-444F-A7EA-A21E4E8702F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7631415" y="1358615"/>
+          <a:ext cx="1655165" cy="301955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>地方</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -10592,2722 +11104,2722 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="257" width="2.75" style="8"/>
+    <col min="1" max="257" width="2.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="11"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="4"/>
     </row>
     <row r="2" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="13"/>
-      <c r="AM2" s="13"/>
-      <c r="AN2" s="13"/>
-      <c r="AO2" s="13"/>
-      <c r="AP2" s="13"/>
-      <c r="AQ2" s="13"/>
-      <c r="AR2" s="13"/>
-      <c r="AS2" s="13"/>
-      <c r="AT2" s="13"/>
-      <c r="AU2" s="13"/>
-      <c r="AV2" s="13"/>
-      <c r="AW2" s="13"/>
-      <c r="AX2" s="13"/>
-      <c r="AY2" s="13"/>
-      <c r="AZ2" s="14"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="7"/>
     </row>
     <row r="3" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="14"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="7"/>
     </row>
     <row r="4" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
-      <c r="AJ4" s="13"/>
-      <c r="AK4" s="13"/>
-      <c r="AL4" s="13"/>
-      <c r="AM4" s="13"/>
-      <c r="AN4" s="13"/>
-      <c r="AO4" s="13"/>
-      <c r="AP4" s="13"/>
-      <c r="AQ4" s="13"/>
-      <c r="AR4" s="13"/>
-      <c r="AS4" s="13"/>
-      <c r="AT4" s="13"/>
-      <c r="AU4" s="13"/>
-      <c r="AV4" s="13"/>
-      <c r="AW4" s="13"/>
-      <c r="AX4" s="13"/>
-      <c r="AY4" s="13"/>
-      <c r="AZ4" s="14"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="7"/>
     </row>
     <row r="5" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
-      <c r="AJ5" s="13"/>
-      <c r="AK5" s="13"/>
-      <c r="AL5" s="13"/>
-      <c r="AM5" s="13"/>
-      <c r="AN5" s="13"/>
-      <c r="AO5" s="13"/>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="14"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
+      <c r="AZ5" s="7"/>
     </row>
     <row r="6" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13"/>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13"/>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="14"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="7"/>
     </row>
     <row r="7" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="13"/>
-      <c r="AK7" s="13"/>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
-      <c r="AQ7" s="13"/>
-      <c r="AR7" s="13"/>
-      <c r="AS7" s="13"/>
-      <c r="AT7" s="13"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="13"/>
-      <c r="AW7" s="13"/>
-      <c r="AX7" s="13"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="14"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
+      <c r="AZ7" s="7"/>
     </row>
     <row r="8" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="13"/>
-      <c r="AZ8" s="14"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
+      <c r="AZ8" s="7"/>
     </row>
     <row r="9" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="7" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="7"/>
-      <c r="AN9" s="7"/>
-      <c r="AO9" s="7"/>
-      <c r="AP9" s="7"/>
-      <c r="AQ9" s="7"/>
-      <c r="AR9" s="7"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="16"/>
-      <c r="AX9" s="16"/>
-      <c r="AY9" s="16"/>
-      <c r="AZ9" s="17"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21"/>
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21"/>
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="9"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="AY9" s="9"/>
+      <c r="AZ9" s="10"/>
     </row>
     <row r="10" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="7"/>
-      <c r="AN10" s="7"/>
-      <c r="AO10" s="7"/>
-      <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="16"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="16"/>
-      <c r="AX10" s="16"/>
-      <c r="AY10" s="16"/>
-      <c r="AZ10" s="17"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="AY10" s="9"/>
+      <c r="AZ10" s="10"/>
     </row>
     <row r="11" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="16"/>
-      <c r="AT11" s="16"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="16"/>
-      <c r="AX11" s="16"/>
-      <c r="AY11" s="16"/>
-      <c r="AZ11" s="17"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="21"/>
+      <c r="AP11" s="21"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="AY11" s="9"/>
+      <c r="AZ11" s="10"/>
     </row>
     <row r="12" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="16"/>
-      <c r="AT12" s="16"/>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="16"/>
-      <c r="AX12" s="16"/>
-      <c r="AY12" s="16"/>
-      <c r="AZ12" s="17"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="21"/>
+      <c r="AM12" s="21"/>
+      <c r="AN12" s="21"/>
+      <c r="AO12" s="21"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="21"/>
+      <c r="AR12" s="21"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="AY12" s="9"/>
+      <c r="AZ12" s="10"/>
     </row>
     <row r="13" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="16"/>
-      <c r="AZ13" s="17"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="21"/>
+      <c r="AM13" s="21"/>
+      <c r="AN13" s="21"/>
+      <c r="AO13" s="21"/>
+      <c r="AP13" s="21"/>
+      <c r="AQ13" s="21"/>
+      <c r="AR13" s="21"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="10"/>
     </row>
     <row r="14" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-      <c r="AK14" s="7"/>
-      <c r="AL14" s="7"/>
-      <c r="AM14" s="7"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="16"/>
-      <c r="AT14" s="16"/>
-      <c r="AU14" s="16"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="16"/>
-      <c r="AX14" s="16"/>
-      <c r="AY14" s="16"/>
-      <c r="AZ14" s="17"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="21"/>
+      <c r="AM14" s="21"/>
+      <c r="AN14" s="21"/>
+      <c r="AO14" s="21"/>
+      <c r="AP14" s="21"/>
+      <c r="AQ14" s="21"/>
+      <c r="AR14" s="21"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="AY14" s="9"/>
+      <c r="AZ14" s="10"/>
     </row>
     <row r="15" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-      <c r="AK15" s="7"/>
-      <c r="AL15" s="7"/>
-      <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="16"/>
-      <c r="AT15" s="16"/>
-      <c r="AU15" s="16"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="16"/>
-      <c r="AX15" s="16"/>
-      <c r="AY15" s="16"/>
-      <c r="AZ15" s="17"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="21"/>
+      <c r="AM15" s="21"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="21"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="AY15" s="9"/>
+      <c r="AZ15" s="10"/>
     </row>
     <row r="16" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
-      <c r="AM16" s="7"/>
-      <c r="AN16" s="7"/>
-      <c r="AO16" s="7"/>
-      <c r="AP16" s="7"/>
-      <c r="AQ16" s="7"/>
-      <c r="AR16" s="7"/>
-      <c r="AS16" s="16"/>
-      <c r="AT16" s="16"/>
-      <c r="AU16" s="16"/>
-      <c r="AV16" s="16"/>
-      <c r="AW16" s="16"/>
-      <c r="AX16" s="16"/>
-      <c r="AY16" s="16"/>
-      <c r="AZ16" s="17"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21"/>
+      <c r="AO16" s="21"/>
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="AY16" s="9"/>
+      <c r="AZ16" s="10"/>
     </row>
     <row r="17" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-      <c r="AK17" s="7"/>
-      <c r="AL17" s="7"/>
-      <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="16"/>
-      <c r="AT17" s="16"/>
-      <c r="AU17" s="16"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="16"/>
-      <c r="AX17" s="16"/>
-      <c r="AY17" s="16"/>
-      <c r="AZ17" s="17"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21"/>
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21"/>
+      <c r="AO17" s="21"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="AY17" s="9"/>
+      <c r="AZ17" s="10"/>
     </row>
     <row r="18" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-      <c r="AK18" s="7"/>
-      <c r="AL18" s="7"/>
-      <c r="AM18" s="7"/>
-      <c r="AN18" s="7"/>
-      <c r="AO18" s="7"/>
-      <c r="AP18" s="7"/>
-      <c r="AQ18" s="7"/>
-      <c r="AR18" s="7"/>
-      <c r="AS18" s="16"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="16"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="16"/>
-      <c r="AX18" s="16"/>
-      <c r="AY18" s="16"/>
-      <c r="AZ18" s="17"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="21"/>
+      <c r="AR18" s="21"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="AY18" s="9"/>
+      <c r="AZ18" s="10"/>
     </row>
     <row r="19" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="7"/>
-      <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="16"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="16"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="16"/>
-      <c r="AX19" s="16"/>
-      <c r="AY19" s="16"/>
-      <c r="AZ19" s="17"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21"/>
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21"/>
+      <c r="AO19" s="21"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="AY19" s="9"/>
+      <c r="AZ19" s="10"/>
     </row>
     <row r="20" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
-      <c r="AP20" s="7"/>
-      <c r="AQ20" s="7"/>
-      <c r="AR20" s="7"/>
-      <c r="AS20" s="16"/>
-      <c r="AT20" s="16"/>
-      <c r="AU20" s="16"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="16"/>
-      <c r="AX20" s="16"/>
-      <c r="AY20" s="16"/>
-      <c r="AZ20" s="17"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21"/>
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21"/>
+      <c r="AO20" s="21"/>
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="21"/>
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="9"/>
+      <c r="AT20" s="9"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="AY20" s="9"/>
+      <c r="AZ20" s="10"/>
     </row>
     <row r="21" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="7"/>
-      <c r="AL21" s="7"/>
-      <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="14"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21"/>
+      <c r="AN21" s="21"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="6"/>
+      <c r="AT21" s="6"/>
+      <c r="AU21" s="6"/>
+      <c r="AV21" s="6"/>
+      <c r="AW21" s="6"/>
+      <c r="AX21" s="6"/>
+      <c r="AY21" s="6"/>
+      <c r="AZ21" s="7"/>
     </row>
     <row r="22" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-      <c r="AK22" s="7"/>
-      <c r="AL22" s="7"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="7"/>
-      <c r="AO22" s="7"/>
-      <c r="AP22" s="7"/>
-      <c r="AQ22" s="7"/>
-      <c r="AR22" s="7"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="14"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="21"/>
+      <c r="AM22" s="21"/>
+      <c r="AN22" s="21"/>
+      <c r="AO22" s="21"/>
+      <c r="AP22" s="21"/>
+      <c r="AQ22" s="21"/>
+      <c r="AR22" s="21"/>
+      <c r="AS22" s="6"/>
+      <c r="AT22" s="6"/>
+      <c r="AU22" s="6"/>
+      <c r="AV22" s="6"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="7"/>
     </row>
     <row r="23" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="14"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" s="6"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="6"/>
+      <c r="AN23" s="6"/>
+      <c r="AO23" s="6"/>
+      <c r="AP23" s="6"/>
+      <c r="AQ23" s="6"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
+      <c r="AT23" s="6"/>
+      <c r="AU23" s="6"/>
+      <c r="AV23" s="6"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+      <c r="AY23" s="6"/>
+      <c r="AZ23" s="7"/>
     </row>
     <row r="24" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="14"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="6"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="6"/>
+      <c r="AZ24" s="7"/>
     </row>
     <row r="25" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="14"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+      <c r="AK25" s="6"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="6"/>
+      <c r="AN25" s="6"/>
+      <c r="AO25" s="6"/>
+      <c r="AP25" s="6"/>
+      <c r="AQ25" s="6"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="6"/>
+      <c r="AT25" s="6"/>
+      <c r="AU25" s="6"/>
+      <c r="AV25" s="6"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6"/>
+      <c r="AY25" s="6"/>
+      <c r="AZ25" s="7"/>
     </row>
     <row r="26" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="14"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+      <c r="AO26" s="6"/>
+      <c r="AP26" s="6"/>
+      <c r="AQ26" s="6"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="6"/>
+      <c r="AT26" s="6"/>
+      <c r="AU26" s="6"/>
+      <c r="AV26" s="6"/>
+      <c r="AW26" s="6"/>
+      <c r="AX26" s="6"/>
+      <c r="AY26" s="6"/>
+      <c r="AZ26" s="7"/>
     </row>
     <row r="27" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="14"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+      <c r="AK27" s="6"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="6"/>
+      <c r="AN27" s="6"/>
+      <c r="AO27" s="6"/>
+      <c r="AP27" s="6"/>
+      <c r="AQ27" s="6"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="6"/>
+      <c r="AT27" s="6"/>
+      <c r="AU27" s="6"/>
+      <c r="AV27" s="6"/>
+      <c r="AW27" s="6"/>
+      <c r="AX27" s="6"/>
+      <c r="AY27" s="6"/>
+      <c r="AZ27" s="7"/>
     </row>
     <row r="28" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="13"/>
-      <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
-      <c r="AZ28" s="14"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+      <c r="AO28" s="6"/>
+      <c r="AP28" s="6"/>
+      <c r="AQ28" s="6"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="6"/>
+      <c r="AT28" s="6"/>
+      <c r="AU28" s="6"/>
+      <c r="AV28" s="6"/>
+      <c r="AW28" s="6"/>
+      <c r="AX28" s="6"/>
+      <c r="AY28" s="6"/>
+      <c r="AZ28" s="7"/>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="14"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="6"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="6"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="6"/>
+      <c r="AW29" s="6"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="7"/>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="14"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="6"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="6"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="6"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="6"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="6"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="6"/>
+      <c r="AZ30" s="7"/>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="13"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
-      <c r="AT31" s="13"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="14"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="7"/>
     </row>
     <row r="32" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="13"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-      <c r="AP32" s="13"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
-      <c r="AS32" s="13"/>
-      <c r="AT32" s="13"/>
-      <c r="AU32" s="13"/>
-      <c r="AV32" s="13"/>
-      <c r="AW32" s="13"/>
-      <c r="AX32" s="13"/>
-      <c r="AY32" s="13"/>
-      <c r="AZ32" s="14"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="7"/>
     </row>
     <row r="33" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="13"/>
-      <c r="AO33" s="13"/>
-      <c r="AP33" s="13"/>
-      <c r="AQ33" s="13"/>
-      <c r="AR33" s="13"/>
-      <c r="AS33" s="13"/>
-      <c r="AT33" s="13"/>
-      <c r="AU33" s="13"/>
-      <c r="AV33" s="13"/>
-      <c r="AW33" s="13"/>
-      <c r="AX33" s="13"/>
-      <c r="AY33" s="13"/>
-      <c r="AZ33" s="14"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="7"/>
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="18"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-      <c r="AO34" s="13"/>
-      <c r="AP34" s="13"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="13"/>
-      <c r="AS34" s="13"/>
-      <c r="AT34" s="13"/>
-      <c r="AU34" s="13"/>
-      <c r="AV34" s="13"/>
-      <c r="AW34" s="13"/>
-      <c r="AX34" s="13"/>
-      <c r="AY34" s="13"/>
-      <c r="AZ34" s="14"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="6"/>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="6"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="6"/>
+      <c r="AY34" s="6"/>
+      <c r="AZ34" s="7"/>
     </row>
     <row r="35" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="18"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="13"/>
-      <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
-      <c r="AS35" s="13"/>
-      <c r="AT35" s="13"/>
-      <c r="AU35" s="13"/>
-      <c r="AV35" s="13"/>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="13"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="14"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+      <c r="AK35" s="6"/>
+      <c r="AL35" s="6"/>
+      <c r="AM35" s="6"/>
+      <c r="AN35" s="6"/>
+      <c r="AO35" s="6"/>
+      <c r="AP35" s="6"/>
+      <c r="AQ35" s="6"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="6"/>
+      <c r="AT35" s="6"/>
+      <c r="AU35" s="6"/>
+      <c r="AV35" s="6"/>
+      <c r="AW35" s="6"/>
+      <c r="AX35" s="6"/>
+      <c r="AY35" s="6"/>
+      <c r="AZ35" s="7"/>
     </row>
     <row r="36" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="18"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="13"/>
-      <c r="AM36" s="13"/>
-      <c r="AN36" s="13"/>
-      <c r="AO36" s="13"/>
-      <c r="AP36" s="13"/>
-      <c r="AQ36" s="13"/>
-      <c r="AR36" s="13"/>
-      <c r="AS36" s="13"/>
-      <c r="AT36" s="13"/>
-      <c r="AU36" s="13"/>
-      <c r="AV36" s="13"/>
-      <c r="AW36" s="13"/>
-      <c r="AX36" s="13"/>
-      <c r="AY36" s="13"/>
-      <c r="AZ36" s="14"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="7"/>
     </row>
     <row r="37" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
-      <c r="AA37" s="13"/>
-      <c r="AB37" s="13"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
-      <c r="AO37" s="13"/>
-      <c r="AP37" s="13"/>
-      <c r="AQ37" s="13"/>
-      <c r="AR37" s="13"/>
-      <c r="AS37" s="13"/>
-      <c r="AT37" s="13"/>
-      <c r="AU37" s="13"/>
-      <c r="AV37" s="13"/>
-      <c r="AW37" s="13"/>
-      <c r="AX37" s="13"/>
-      <c r="AY37" s="13"/>
-      <c r="AZ37" s="14"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="6"/>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="6"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="7"/>
     </row>
     <row r="38" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="18"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="18"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="13"/>
-      <c r="AQ38" s="13"/>
-      <c r="AR38" s="13"/>
-      <c r="AS38" s="13"/>
-      <c r="AT38" s="13"/>
-      <c r="AU38" s="13"/>
-      <c r="AV38" s="13"/>
-      <c r="AW38" s="13"/>
-      <c r="AX38" s="13"/>
-      <c r="AY38" s="13"/>
-      <c r="AZ38" s="14"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="7"/>
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
-      <c r="AP39" s="19"/>
-      <c r="AQ39" s="19"/>
-      <c r="AR39" s="19"/>
-      <c r="AS39" s="19"/>
-      <c r="AT39" s="19"/>
-      <c r="AU39" s="19"/>
-      <c r="AV39" s="19"/>
-      <c r="AW39" s="19"/>
-      <c r="AX39" s="19"/>
-      <c r="AY39" s="19"/>
-      <c r="AZ39" s="14"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
+      <c r="AI39" s="12"/>
+      <c r="AJ39" s="12"/>
+      <c r="AK39" s="12"/>
+      <c r="AL39" s="12"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="12"/>
+      <c r="AO39" s="12"/>
+      <c r="AP39" s="12"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="12"/>
+      <c r="AS39" s="12"/>
+      <c r="AT39" s="12"/>
+      <c r="AU39" s="12"/>
+      <c r="AV39" s="12"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="12"/>
+      <c r="AY39" s="12"/>
+      <c r="AZ39" s="7"/>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="19"/>
-      <c r="AG40" s="19"/>
-      <c r="AH40" s="19"/>
-      <c r="AI40" s="19"/>
-      <c r="AJ40" s="19"/>
-      <c r="AK40" s="19"/>
-      <c r="AL40" s="19"/>
-      <c r="AM40" s="19"/>
-      <c r="AN40" s="19"/>
-      <c r="AO40" s="19"/>
-      <c r="AP40" s="19"/>
-      <c r="AQ40" s="19"/>
-      <c r="AR40" s="19"/>
-      <c r="AS40" s="19"/>
-      <c r="AT40" s="19"/>
-      <c r="AU40" s="19"/>
-      <c r="AV40" s="19"/>
-      <c r="AW40" s="19"/>
-      <c r="AX40" s="19"/>
-      <c r="AY40" s="19"/>
-      <c r="AZ40" s="14"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="12"/>
+      <c r="AN40" s="12"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="12"/>
+      <c r="AX40" s="12"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="7"/>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="6" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="6"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
-      <c r="AI41" s="6"/>
-      <c r="AJ41" s="6"/>
-      <c r="AK41" s="6"/>
-      <c r="AL41" s="5">
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18"/>
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="22">
         <v>43922</v>
       </c>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
-      <c r="AZ41" s="14"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="22"/>
+      <c r="AP41" s="22"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="22"/>
+      <c r="AT41" s="22"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="22"/>
+      <c r="AY41" s="22"/>
+      <c r="AZ41" s="7"/>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
-      <c r="AS42" s="5"/>
-      <c r="AT42" s="5"/>
-      <c r="AU42" s="5"/>
-      <c r="AV42" s="5"/>
-      <c r="AW42" s="5"/>
-      <c r="AX42" s="5"/>
-      <c r="AY42" s="5"/>
-      <c r="AZ42" s="14"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="18"/>
+      <c r="AG42" s="18"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="18"/>
+      <c r="AJ42" s="18"/>
+      <c r="AK42" s="18"/>
+      <c r="AL42" s="22"/>
+      <c r="AM42" s="22"/>
+      <c r="AN42" s="22"/>
+      <c r="AO42" s="22"/>
+      <c r="AP42" s="22"/>
+      <c r="AQ42" s="22"/>
+      <c r="AR42" s="22"/>
+      <c r="AS42" s="22"/>
+      <c r="AT42" s="22"/>
+      <c r="AU42" s="22"/>
+      <c r="AV42" s="22"/>
+      <c r="AW42" s="22"/>
+      <c r="AX42" s="22"/>
+      <c r="AY42" s="22"/>
+      <c r="AZ42" s="7"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="13"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="6" t="s">
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="6"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
-      <c r="AI43" s="6"/>
-      <c r="AJ43" s="6"/>
-      <c r="AK43" s="6"/>
-      <c r="AL43" s="4" t="s">
+      <c r="AG43" s="18"/>
+      <c r="AH43" s="18"/>
+      <c r="AI43" s="18"/>
+      <c r="AJ43" s="18"/>
+      <c r="AK43" s="18"/>
+      <c r="AL43" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AM43" s="4"/>
-      <c r="AN43" s="4"/>
-      <c r="AO43" s="4"/>
-      <c r="AP43" s="4"/>
-      <c r="AQ43" s="4"/>
-      <c r="AR43" s="4"/>
-      <c r="AS43" s="4"/>
-      <c r="AT43" s="4"/>
-      <c r="AU43" s="4"/>
-      <c r="AV43" s="4"/>
-      <c r="AW43" s="4"/>
-      <c r="AX43" s="4"/>
-      <c r="AY43" s="4"/>
-      <c r="AZ43" s="14"/>
+      <c r="AM43" s="23"/>
+      <c r="AN43" s="23"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="23"/>
+      <c r="AQ43" s="23"/>
+      <c r="AR43" s="23"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="23"/>
+      <c r="AU43" s="23"/>
+      <c r="AV43" s="23"/>
+      <c r="AW43" s="23"/>
+      <c r="AX43" s="23"/>
+      <c r="AY43" s="23"/>
+      <c r="AZ43" s="7"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="13"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="6"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="6"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="6"/>
-      <c r="AK44" s="6"/>
-      <c r="AL44" s="4"/>
-      <c r="AM44" s="4"/>
-      <c r="AN44" s="4"/>
-      <c r="AO44" s="4"/>
-      <c r="AP44" s="4"/>
-      <c r="AQ44" s="4"/>
-      <c r="AR44" s="4"/>
-      <c r="AS44" s="4"/>
-      <c r="AT44" s="4"/>
-      <c r="AU44" s="4"/>
-      <c r="AV44" s="4"/>
-      <c r="AW44" s="4"/>
-      <c r="AX44" s="4"/>
-      <c r="AY44" s="4"/>
-      <c r="AZ44" s="14"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="18"/>
+      <c r="AG44" s="18"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="18"/>
+      <c r="AJ44" s="18"/>
+      <c r="AK44" s="18"/>
+      <c r="AL44" s="23"/>
+      <c r="AM44" s="23"/>
+      <c r="AN44" s="23"/>
+      <c r="AO44" s="23"/>
+      <c r="AP44" s="23"/>
+      <c r="AQ44" s="23"/>
+      <c r="AR44" s="23"/>
+      <c r="AS44" s="23"/>
+      <c r="AT44" s="23"/>
+      <c r="AU44" s="23"/>
+      <c r="AV44" s="23"/>
+      <c r="AW44" s="23"/>
+      <c r="AX44" s="23"/>
+      <c r="AY44" s="23"/>
+      <c r="AZ44" s="7"/>
     </row>
     <row r="45" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A45" s="12"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="6" t="s">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="3"/>
-      <c r="AM45" s="3"/>
-      <c r="AN45" s="3"/>
-      <c r="AO45" s="3"/>
-      <c r="AP45" s="3"/>
-      <c r="AQ45" s="3"/>
-      <c r="AR45" s="3"/>
-      <c r="AS45" s="3"/>
-      <c r="AT45" s="3"/>
-      <c r="AU45" s="3"/>
-      <c r="AV45" s="3"/>
-      <c r="AW45" s="3"/>
-      <c r="AX45" s="3"/>
-      <c r="AY45" s="3"/>
-      <c r="AZ45" s="14"/>
+      <c r="AG45" s="18"/>
+      <c r="AH45" s="18"/>
+      <c r="AI45" s="18"/>
+      <c r="AJ45" s="18"/>
+      <c r="AK45" s="18"/>
+      <c r="AL45" s="19"/>
+      <c r="AM45" s="19"/>
+      <c r="AN45" s="19"/>
+      <c r="AO45" s="19"/>
+      <c r="AP45" s="19"/>
+      <c r="AQ45" s="19"/>
+      <c r="AR45" s="19"/>
+      <c r="AS45" s="19"/>
+      <c r="AT45" s="19"/>
+      <c r="AU45" s="19"/>
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="19"/>
+      <c r="AY45" s="19"/>
+      <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="6"/>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="3"/>
-      <c r="AM46" s="3"/>
-      <c r="AN46" s="3"/>
-      <c r="AO46" s="3"/>
-      <c r="AP46" s="3"/>
-      <c r="AQ46" s="3"/>
-      <c r="AR46" s="3"/>
-      <c r="AS46" s="3"/>
-      <c r="AT46" s="3"/>
-      <c r="AU46" s="3"/>
-      <c r="AV46" s="3"/>
-      <c r="AW46" s="3"/>
-      <c r="AX46" s="3"/>
-      <c r="AY46" s="3"/>
-      <c r="AZ46" s="14"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="18"/>
+      <c r="AG46" s="18"/>
+      <c r="AH46" s="18"/>
+      <c r="AI46" s="18"/>
+      <c r="AJ46" s="18"/>
+      <c r="AK46" s="18"/>
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="19"/>
+      <c r="AO46" s="19"/>
+      <c r="AP46" s="19"/>
+      <c r="AQ46" s="19"/>
+      <c r="AR46" s="19"/>
+      <c r="AS46" s="19"/>
+      <c r="AT46" s="19"/>
+      <c r="AU46" s="19"/>
+      <c r="AV46" s="19"/>
+      <c r="AW46" s="19"/>
+      <c r="AX46" s="19"/>
+      <c r="AY46" s="19"/>
+      <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="6" t="s">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="6"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
-      <c r="AJ47" s="6"/>
-      <c r="AK47" s="6"/>
-      <c r="AL47" s="2"/>
-      <c r="AM47" s="2"/>
-      <c r="AN47" s="2"/>
-      <c r="AO47" s="2"/>
-      <c r="AP47" s="2"/>
-      <c r="AQ47" s="2"/>
-      <c r="AR47" s="2"/>
-      <c r="AS47" s="2"/>
-      <c r="AT47" s="2"/>
-      <c r="AU47" s="2"/>
-      <c r="AV47" s="2"/>
-      <c r="AW47" s="2"/>
-      <c r="AX47" s="2"/>
-      <c r="AY47" s="2"/>
-      <c r="AZ47" s="14"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18"/>
+      <c r="AI47" s="18"/>
+      <c r="AJ47" s="18"/>
+      <c r="AK47" s="18"/>
+      <c r="AL47" s="20"/>
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20"/>
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="20"/>
+      <c r="AT47" s="20"/>
+      <c r="AU47" s="20"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="20"/>
+      <c r="AY47" s="20"/>
+      <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A48" s="12"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="6"/>
-      <c r="AG48" s="6"/>
-      <c r="AH48" s="6"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="6"/>
-      <c r="AK48" s="6"/>
-      <c r="AL48" s="2"/>
-      <c r="AM48" s="2"/>
-      <c r="AN48" s="2"/>
-      <c r="AO48" s="2"/>
-      <c r="AP48" s="2"/>
-      <c r="AQ48" s="2"/>
-      <c r="AR48" s="2"/>
-      <c r="AS48" s="2"/>
-      <c r="AT48" s="2"/>
-      <c r="AU48" s="2"/>
-      <c r="AV48" s="2"/>
-      <c r="AW48" s="2"/>
-      <c r="AX48" s="2"/>
-      <c r="AY48" s="2"/>
-      <c r="AZ48" s="14"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="18"/>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="20"/>
+      <c r="AM48" s="20"/>
+      <c r="AN48" s="20"/>
+      <c r="AO48" s="20"/>
+      <c r="AP48" s="20"/>
+      <c r="AQ48" s="20"/>
+      <c r="AR48" s="20"/>
+      <c r="AS48" s="20"/>
+      <c r="AT48" s="20"/>
+      <c r="AU48" s="20"/>
+      <c r="AV48" s="20"/>
+      <c r="AW48" s="20"/>
+      <c r="AX48" s="20"/>
+      <c r="AY48" s="20"/>
+      <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A49" s="12"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="13"/>
-      <c r="AO49" s="13"/>
-      <c r="AP49" s="13"/>
-      <c r="AQ49" s="13"/>
-      <c r="AR49" s="13"/>
-      <c r="AS49" s="13"/>
-      <c r="AT49" s="13"/>
-      <c r="AU49" s="13"/>
-      <c r="AV49" s="13"/>
-      <c r="AW49" s="13"/>
-      <c r="AX49" s="13"/>
-      <c r="AY49" s="13"/>
-      <c r="AZ49" s="14"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+      <c r="AN49" s="6"/>
+      <c r="AO49" s="6"/>
+      <c r="AP49" s="6"/>
+      <c r="AQ49" s="6"/>
+      <c r="AR49" s="6"/>
+      <c r="AS49" s="6"/>
+      <c r="AT49" s="6"/>
+      <c r="AU49" s="6"/>
+      <c r="AV49" s="6"/>
+      <c r="AW49" s="6"/>
+      <c r="AX49" s="6"/>
+      <c r="AY49" s="6"/>
+      <c r="AZ49" s="7"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
-      <c r="X50" s="21"/>
-      <c r="Y50" s="21"/>
-      <c r="Z50" s="21"/>
-      <c r="AA50" s="21"/>
-      <c r="AB50" s="21"/>
-      <c r="AC50" s="21"/>
-      <c r="AD50" s="21"/>
-      <c r="AE50" s="21"/>
-      <c r="AF50" s="21"/>
-      <c r="AG50" s="21"/>
-      <c r="AH50" s="21"/>
-      <c r="AI50" s="21"/>
-      <c r="AJ50" s="21"/>
-      <c r="AK50" s="21"/>
-      <c r="AL50" s="21"/>
-      <c r="AM50" s="21"/>
-      <c r="AN50" s="21"/>
-      <c r="AO50" s="21"/>
-      <c r="AP50" s="21"/>
-      <c r="AQ50" s="21"/>
-      <c r="AR50" s="21"/>
-      <c r="AS50" s="21"/>
-      <c r="AT50" s="21"/>
-      <c r="AU50" s="21"/>
-      <c r="AV50" s="21"/>
-      <c r="AW50" s="21"/>
-      <c r="AX50" s="21"/>
-      <c r="AY50" s="21"/>
-      <c r="AZ50" s="22"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="14"/>
+      <c r="AX50" s="14"/>
+      <c r="AY50" s="14"/>
+      <c r="AZ50" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13335,7 +13847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -13350,7 +13862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -13365,7 +13877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -13380,7 +13892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -13399,373 +13911,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="16">
         <v>40</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DS/001_設計書/001_基本設計書/DS基本設計書_人員管理画面.xlsx
+++ b/DS/001_設計書/001_基本設計書/DS基本設計書_人員管理画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.ishii\Documents\DeliverySystem\DS\001_設計書\001_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\001_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DF8924-9EDF-4DA9-8AE5-04B3124DEFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922B756C-6AD6-46B2-B284-E46568055803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -2759,87 +2759,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>226080</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2322360" y="1045800"/>
-          <a:ext cx="486720" cy="272880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="3B3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>年</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>50040</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -2910,168 +2829,6 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>生年月日</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>225000</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895120" y="1032840"/>
-          <a:ext cx="487080" cy="272880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="3B3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>月</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>28440</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3472560" y="1032840"/>
-          <a:ext cx="486720" cy="272880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00B0F0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
-              <a:solidFill>
-                <a:srgbClr val="3B3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>日</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
@@ -4033,6 +3790,132 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>地方</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>36360</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147240</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{638394CF-26E9-4888-9DC9-B748D826F946}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2291880" y="1045800"/>
+          <a:ext cx="1520580" cy="273120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>XXXX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" strike="noStrike" spc="-1">
+              <a:solidFill>
+                <a:srgbClr val="3B3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>日</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
@@ -11102,12 +10985,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="257" width="2.75" style="1"/>
+    <col min="1" max="257" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -11161,7 +11044,7 @@
       <c r="AY1" s="3"/>
       <c r="AZ1" s="4"/>
     </row>
-    <row r="2" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -11215,7 +11098,7 @@
       <c r="AY2" s="6"/>
       <c r="AZ2" s="7"/>
     </row>
-    <row r="3" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -11269,7 +11152,7 @@
       <c r="AY3" s="6"/>
       <c r="AZ3" s="7"/>
     </row>
-    <row r="4" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -11323,7 +11206,7 @@
       <c r="AY4" s="6"/>
       <c r="AZ4" s="7"/>
     </row>
-    <row r="5" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -11377,7 +11260,7 @@
       <c r="AY5" s="6"/>
       <c r="AZ5" s="7"/>
     </row>
-    <row r="6" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -11431,7 +11314,7 @@
       <c r="AY6" s="6"/>
       <c r="AZ6" s="7"/>
     </row>
-    <row r="7" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -11485,7 +11368,7 @@
       <c r="AY7" s="6"/>
       <c r="AZ7" s="7"/>
     </row>
-    <row r="8" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -11539,7 +11422,7 @@
       <c r="AY8" s="6"/>
       <c r="AZ8" s="7"/>
     </row>
-    <row r="9" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -11595,7 +11478,7 @@
       <c r="AY9" s="9"/>
       <c r="AZ9" s="10"/>
     </row>
-    <row r="10" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -11649,7 +11532,7 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="10"/>
     </row>
-    <row r="11" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -11703,7 +11586,7 @@
       <c r="AY11" s="9"/>
       <c r="AZ11" s="10"/>
     </row>
-    <row r="12" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -11757,7 +11640,7 @@
       <c r="AY12" s="9"/>
       <c r="AZ12" s="10"/>
     </row>
-    <row r="13" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -11811,7 +11694,7 @@
       <c r="AY13" s="9"/>
       <c r="AZ13" s="10"/>
     </row>
-    <row r="14" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -11865,7 +11748,7 @@
       <c r="AY14" s="9"/>
       <c r="AZ14" s="10"/>
     </row>
-    <row r="15" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -11919,7 +11802,7 @@
       <c r="AY15" s="9"/>
       <c r="AZ15" s="10"/>
     </row>
-    <row r="16" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -11973,7 +11856,7 @@
       <c r="AY16" s="9"/>
       <c r="AZ16" s="10"/>
     </row>
-    <row r="17" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -12027,7 +11910,7 @@
       <c r="AY17" s="9"/>
       <c r="AZ17" s="10"/>
     </row>
-    <row r="18" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -12081,7 +11964,7 @@
       <c r="AY18" s="9"/>
       <c r="AZ18" s="10"/>
     </row>
-    <row r="19" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -12135,7 +12018,7 @@
       <c r="AY19" s="9"/>
       <c r="AZ19" s="10"/>
     </row>
-    <row r="20" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -12189,7 +12072,7 @@
       <c r="AY20" s="9"/>
       <c r="AZ20" s="10"/>
     </row>
-    <row r="21" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -12243,7 +12126,7 @@
       <c r="AY21" s="6"/>
       <c r="AZ21" s="7"/>
     </row>
-    <row r="22" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -12297,7 +12180,7 @@
       <c r="AY22" s="6"/>
       <c r="AZ22" s="7"/>
     </row>
-    <row r="23" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -12351,7 +12234,7 @@
       <c r="AY23" s="6"/>
       <c r="AZ23" s="7"/>
     </row>
-    <row r="24" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -12405,7 +12288,7 @@
       <c r="AY24" s="6"/>
       <c r="AZ24" s="7"/>
     </row>
-    <row r="25" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -12459,7 +12342,7 @@
       <c r="AY25" s="6"/>
       <c r="AZ25" s="7"/>
     </row>
-    <row r="26" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -12513,7 +12396,7 @@
       <c r="AY26" s="6"/>
       <c r="AZ26" s="7"/>
     </row>
-    <row r="27" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -12567,7 +12450,7 @@
       <c r="AY27" s="6"/>
       <c r="AZ27" s="7"/>
     </row>
-    <row r="28" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -12621,7 +12504,7 @@
       <c r="AY28" s="6"/>
       <c r="AZ28" s="7"/>
     </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -12675,7 +12558,7 @@
       <c r="AY29" s="6"/>
       <c r="AZ29" s="7"/>
     </row>
-    <row r="30" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -12729,7 +12612,7 @@
       <c r="AY30" s="6"/>
       <c r="AZ30" s="7"/>
     </row>
-    <row r="31" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -12783,7 +12666,7 @@
       <c r="AY31" s="6"/>
       <c r="AZ31" s="7"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -12837,7 +12720,7 @@
       <c r="AY32" s="6"/>
       <c r="AZ32" s="7"/>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -12891,7 +12774,7 @@
       <c r="AY33" s="6"/>
       <c r="AZ33" s="7"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -12945,7 +12828,7 @@
       <c r="AY34" s="6"/>
       <c r="AZ34" s="7"/>
     </row>
-    <row r="35" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -12999,7 +12882,7 @@
       <c r="AY35" s="6"/>
       <c r="AZ35" s="7"/>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -13053,7 +12936,7 @@
       <c r="AY36" s="6"/>
       <c r="AZ36" s="7"/>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -13107,7 +12990,7 @@
       <c r="AY37" s="6"/>
       <c r="AZ37" s="7"/>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -13161,7 +13044,7 @@
       <c r="AY38" s="6"/>
       <c r="AZ38" s="7"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -13215,7 +13098,7 @@
       <c r="AY39" s="12"/>
       <c r="AZ39" s="7"/>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -13269,7 +13152,7 @@
       <c r="AY40" s="12"/>
       <c r="AZ40" s="7"/>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -13327,7 +13210,7 @@
       <c r="AY41" s="22"/>
       <c r="AZ41" s="7"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -13381,7 +13264,7 @@
       <c r="AY42" s="22"/>
       <c r="AZ42" s="7"/>
     </row>
-    <row r="43" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -13439,7 +13322,7 @@
       <c r="AY43" s="23"/>
       <c r="AZ43" s="7"/>
     </row>
-    <row r="44" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -13493,7 +13376,7 @@
       <c r="AY44" s="23"/>
       <c r="AZ44" s="7"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -13549,7 +13432,7 @@
       <c r="AY45" s="19"/>
       <c r="AZ45" s="7"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -13603,7 +13486,7 @@
       <c r="AY46" s="19"/>
       <c r="AZ46" s="7"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -13659,7 +13542,7 @@
       <c r="AY47" s="20"/>
       <c r="AZ47" s="7"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -13713,7 +13596,7 @@
       <c r="AY48" s="20"/>
       <c r="AZ48" s="7"/>
     </row>
-    <row r="49" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -13767,7 +13650,7 @@
       <c r="AY49" s="6"/>
       <c r="AZ49" s="7"/>
     </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -13847,9 +13730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13864,7 +13747,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13877,9 +13760,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -13896,21 +13779,21 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="4" width="5.75" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="28.625" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="1018" max="1026" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="4" width="5.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="1018" max="1026" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
@@ -13925,7 +13808,7 @@
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>22</v>
       </c>
@@ -13958,7 +13841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
@@ -13993,7 +13876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -14006,7 +13889,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -14019,7 +13902,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -14032,7 +13915,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -14045,7 +13928,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -14058,7 +13941,7 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -14071,7 +13954,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -14084,7 +13967,7 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -14097,7 +13980,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -14110,7 +13993,7 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -14123,7 +14006,7 @@
       <c r="J13" s="16"/>
       <c r="K13" s="16"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -14136,7 +14019,7 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -14149,7 +14032,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -14162,7 +14045,7 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -14175,7 +14058,7 @@
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -14188,7 +14071,7 @@
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -14201,7 +14084,7 @@
       <c r="J19" s="16"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -14214,7 +14097,7 @@
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14227,7 +14110,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -14240,7 +14123,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -14253,7 +14136,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -14266,7 +14149,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -14302,7 +14185,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14317,7 +14200,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -14332,7 +14215,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
